--- a/import.xlsx
+++ b/import.xlsx
@@ -4,27 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
-    <sheet name="名词解释" sheetId="11" r:id="rId2"/>
-    <sheet name="cbs流程" sheetId="2" r:id="rId3"/>
-    <sheet name="目的港流程整理" sheetId="10" r:id="rId4"/>
-    <sheet name="客户供应商仓库" sheetId="9" r:id="rId5"/>
-    <sheet name="菜单配置" sheetId="3" r:id="rId6"/>
-    <sheet name="cbs-开发调试" sheetId="4" r:id="rId7"/>
-    <sheet name="git设置" sheetId="5" r:id="rId8"/>
-    <sheet name="swagger" sheetId="6" r:id="rId9"/>
-    <sheet name="发布流程" sheetId="7" r:id="rId10"/>
-    <sheet name="后端人员" sheetId="8" r:id="rId11"/>
+    <sheet name="Job时间设置" sheetId="12" r:id="rId2"/>
+    <sheet name="名词解释" sheetId="11" r:id="rId3"/>
+    <sheet name="cbs流程" sheetId="2" r:id="rId4"/>
+    <sheet name="目的港流程整理" sheetId="10" r:id="rId5"/>
+    <sheet name="客户供应商仓库" sheetId="9" r:id="rId6"/>
+    <sheet name="菜单配置" sheetId="3" r:id="rId7"/>
+    <sheet name="cbs-开发调试" sheetId="4" r:id="rId8"/>
+    <sheet name="git设置" sheetId="5" r:id="rId9"/>
+    <sheet name="swagger" sheetId="6" r:id="rId10"/>
+    <sheet name="发布流程" sheetId="7" r:id="rId11"/>
+    <sheet name="后端人员" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="274">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -138,6 +139,15 @@
   </si>
   <si>
     <t>ranger-jwl</t>
+  </si>
+  <si>
+    <t>ranger-sz   123456或999999</t>
+  </si>
+  <si>
+    <t>阿部阿部</t>
+  </si>
+  <si>
+    <t>深圳郦泰</t>
   </si>
   <si>
     <t>@李斌 sqlite加表的操作顺序：</t>
@@ -275,6 +285,208 @@
       </rPr>
       <t>dotnet build</t>
     </r>
+  </si>
+  <si>
+    <t>quartz</t>
+  </si>
+  <si>
+    <t>由7段构成：秒 分 时 日 月 星期 年（可选）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”——字符可以用于所有字段，在“分”字段中设为"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"表示"每一分钟"的含义。</t>
+    </r>
+  </si>
+  <si>
+    <t>“?”——字符可以用在“日”和“周几”字段.它用来指定’不明确的值’.这在你需要指定这两个字段中的某一个值而不是另外一个的时候会被用到。在后面的例子中可以看到其含义。</t>
+  </si>
+  <si>
+    <t>“-”——字符被用来指定一个值的范围，比如在“小时”字段中设为"10-12"表示"10点到12点"。</t>
+  </si>
+  <si>
+    <t>“,”——字符指定数个值。比如在“周几”字段中设为"MON,WED,FRI"表示"the days Monday, Wednesday, and Friday"。</t>
+  </si>
+  <si>
+    <t>“/”——字符用来指定一个值的的增加幅度.比如在“秒”字段中设置为"0/15"表示"第0, 15, 30,和45秒"。而"5/15"则表示"第5, 20, 35,和50".在’/'前加"*“字符相当于指定从0秒开始.每个字段都有一系列可以开始或结束的数值。对于“秒”和“分”字段来说，其数值范围为0到59，对于“小时”字段来说其为0到23,对于“日”字段来说为0到31,而对于“月”字段来说为1到12。”/"字段仅仅只是帮助你在允许的数值范围内从开始"第n"的值。</t>
+  </si>
+  <si>
+    <t>“L”——字符可用在“日”和“周几”这两个字段。它是"last"的缩写,但是在这两个字段中有不同的含义。例如,“日”字段中的"L"表示"一个月中的最后一天" ——对于一月就是31号对于二月来说就是28号（非闰年）。而在“周几”字段中,它简单的表示"7" or “SAT”，但是如果在“周几”字段中使用时跟在某个数字之后,它表示"该月最后一个星期×" ——比如"6L"表示"该月最后一个周五"。当使用’L’选项时,指定确定的列表或者范围非常重要，否则你会被结果搞糊涂的。</t>
+  </si>
+  <si>
+    <t>“W”——可用于“日”字段。用来指定历给定日期最近的工作日(周一到周五)。比如你将“日”字段设为"15W"，意为: “离该月15号最近的工作日”。因此如果15号为周六，触发器会在14号即周五调用。如果15号为周日,触发器会在16号也就是周一触发。如果15号为周二,那么当天就会触发。然而如果你将“日”字段设为"1W",而一号又是周六,触发器会于下周一也就是当月的3号触发,因为它不会越过当月的值的范围边界。'W’字符只能用于“日”字段的值为单独的一天而不是一系列值的时候。</t>
+  </si>
+  <si>
+    <t>“L”和“W”可以组合用于“日”字段表示为’LW’，意为"该月最后一个工作日"。</t>
+  </si>
+  <si>
+    <t>“#”——字符可用于“周几”字段。该字符表示“该月第几个周×”，比如"6#3"表示该月第三个周五( 6表示周五而"#3"该月第三个)。再比如: “2#1” =表示该月第一个周一而"4#5" =该月第五个周三。注意如果你指定"#5"该月没有第五个“周×”，该月是不会触发的。</t>
+  </si>
+  <si>
+    <t>“C”——字符可用于“日”和“周几”字段，它是"calendar"的缩写。它表示为基于相关的日历所计算出的值（如果有的话）。如果没有关联的日历,那它等同于包含全部日历。“日”字段值为"5C"表示"日历中的第一天或者5号以后"，“周几”字段值为"1C"则表示"日历中的第一天或者周日以后"。</t>
+  </si>
+  <si>
+    <t>对于“月份”字段和“周几”字段来说合法的字符都不是大小写敏感的。</t>
+  </si>
+  <si>
+    <t>秒0-59 , - * /</t>
+  </si>
+  <si>
+    <t>分0-59 , - * /</t>
+  </si>
+  <si>
+    <t>小时0-23 , - * /</t>
+  </si>
+  <si>
+    <t>日1-31 , - * ? / L W C</t>
+  </si>
+  <si>
+    <t>月1-12 or JAN-DEC , - * /</t>
+  </si>
+  <si>
+    <t>周几1-7 or SUN-SAT , - * ? / L C #</t>
+  </si>
+  <si>
+    <t>年(可选字段) empty, 1970-2099 , - * /</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>秒（0–59）</t>
+  </si>
+  <si>
+    <t>分钟（0–59</t>
+  </si>
+  <si>
+    <t>小时（0–23）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月份中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（1–31）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（1–12或JAN–DEC）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>星期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的日期（1–7或SUN–SAT）</t>
+    </r>
+  </si>
+  <si>
+    <t>年份（1970–2099）</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>每天中午12点触发</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>每天上午10:15触发</t>
+  </si>
+  <si>
+    <t>*/1</t>
   </si>
   <si>
     <t>BOL单</t>
@@ -2971,7 +3183,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3035,6 +3247,18 @@
     <font>
       <sz val="13.5"/>
       <color rgb="FF576B95"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF4F4F4F"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -3241,13 +3465,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3257,6 +3488,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3453,12 +3696,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3567,10 +3825,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3579,16 +3837,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3597,119 +3855,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3752,10 +4010,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4721,18 +5009,18 @@
   <sheetPr/>
   <dimension ref="B4:H203"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G197" sqref="G197"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
@@ -4785,11 +5073,11 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
@@ -4832,11 +5120,11 @@
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
@@ -4859,22 +5147,22 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
@@ -4937,177 +5225,188 @@
         <v>123456</v>
       </c>
     </row>
+    <row r="66" spans="2:7">
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C146" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="188" spans="2:8">
@@ -5121,7 +5420,7 @@
     </row>
     <row r="189" spans="2:8">
       <c r="B189" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -5141,7 +5440,7 @@
     </row>
     <row r="191" spans="2:8">
       <c r="B191" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -5152,7 +5451,7 @@
     </row>
     <row r="192" spans="2:8">
       <c r="B192" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -5163,7 +5462,7 @@
     </row>
     <row r="193" spans="2:8">
       <c r="B193" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -5179,7 +5478,7 @@
     </row>
     <row r="198" spans="2:4">
       <c r="B198" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
@@ -5190,15 +5489,15 @@
       <c r="D199" s="5"/>
     </row>
     <row r="200" ht="15" spans="2:4">
-      <c r="B200" s="15" t="s">
-        <v>73</v>
+      <c r="B200" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
     <row r="201" ht="15" spans="2:4">
-      <c r="B201" s="15" t="s">
-        <v>74</v>
+      <c r="B201" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -5222,6 +5521,42 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:D53"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:D5"/>
@@ -5234,20 +5569,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5256,7 +5591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:C5"/>
@@ -5272,18 +5607,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5293,6 +5628,313 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:I50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="2:2">
+      <c r="B5" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="2:2">
+      <c r="B6" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="2:2">
+      <c r="B7" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="2:2">
+      <c r="B8" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="2:2">
+      <c r="B9" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="2:2">
+      <c r="B10" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="2:2">
+      <c r="B11" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="2:2">
+      <c r="B12" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="2:2">
+      <c r="B13" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="2:2">
+      <c r="B14" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="15" spans="2:2">
+      <c r="B15" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="2:2">
+      <c r="B19" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="2:2">
+      <c r="B20" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="2:2">
+      <c r="B21" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="2:2">
+      <c r="B22" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="2:2">
+      <c r="B23" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" ht="30" spans="2:2">
+      <c r="B24" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" ht="30" spans="2:2">
+      <c r="B25" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
+      <c r="E31" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="18">
+        <v>1</v>
+      </c>
+      <c r="C32" s="18">
+        <v>2</v>
+      </c>
+      <c r="D32" s="18">
+        <v>3</v>
+      </c>
+      <c r="E32" s="18">
+        <v>4</v>
+      </c>
+      <c r="F32" s="18">
+        <v>5</v>
+      </c>
+      <c r="G32" s="18">
+        <v>6</v>
+      </c>
+      <c r="H32" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" s="14" customFormat="1" spans="2:8">
+      <c r="B33" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" s="14" customFormat="1" ht="14.25" spans="2:9">
+      <c r="B34" s="14">
+        <v>0</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" s="14" customFormat="1" ht="27" spans="2:9">
+      <c r="B35" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" s="14" customFormat="1" ht="27" spans="2:9">
+      <c r="B36" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" s="14" customFormat="1" ht="27" spans="2:9">
+      <c r="B37" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" s="14" customFormat="1" spans="2:7">
+      <c r="B38" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" s="14" customFormat="1"/>
+    <row r="40" s="14" customFormat="1"/>
+    <row r="41" s="14" customFormat="1"/>
+    <row r="42" s="14" customFormat="1"/>
+    <row r="43" s="14" customFormat="1"/>
+    <row r="44" s="14" customFormat="1"/>
+    <row r="45" s="14" customFormat="1"/>
+    <row r="46" s="14" customFormat="1"/>
+    <row r="47" s="14" customFormat="1"/>
+    <row r="48" s="14" customFormat="1"/>
+    <row r="49" s="14" customFormat="1"/>
+    <row r="50" s="14" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:H66"/>
@@ -5312,330 +5954,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="7" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="7" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="7" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="7" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="7" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="11" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="11" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="11" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="11" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="11" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="11" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="11" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="11" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="11" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="11" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="11" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="11" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="11" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="11" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="11" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="11" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="11" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="11" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="11" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="11" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="11" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="11" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="11" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="11" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="11" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="11" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="11" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="11" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="11" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="11" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="11" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="11" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="11" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="11" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="11" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="11" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="11" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="11" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="11" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="11" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="11" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="11" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="11" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="11" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="11" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="11" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="13" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5644,7 +6286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:O13"/>
@@ -5657,7 +6299,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -5665,10 +6307,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="L4" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -5682,7 +6324,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -5690,28 +6332,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="O7" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="O8" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5722,7 +6364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B5:K9"/>
@@ -5738,52 +6380,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="I5" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="K6" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5792,7 +6434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -5807,132 +6449,132 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5941,7 +6583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:C41"/>
@@ -5957,46 +6599,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -6007,7 +6649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:B7"/>
@@ -6020,17 +6662,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -6039,12 +6681,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
@@ -6052,88 +6694,88 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="1" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="G35" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="J35" s="2"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -6146,40 +6788,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:D53"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" t="s">
-        <v>227</v>
-      </c>
-      <c r="D53" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/import.xlsx
+++ b/import.xlsx
@@ -5010,7 +5010,7 @@
   <dimension ref="B4:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="swagger" sheetId="6" r:id="rId10"/>
     <sheet name="发布流程" sheetId="7" r:id="rId11"/>
     <sheet name="后端人员" sheetId="8" r:id="rId12"/>
+    <sheet name="异步" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="278">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -3171,6 +3172,31 @@
   </si>
   <si>
     <t>鲁俊</t>
+  </si>
+  <si>
+    <t>http://t.zoukankan.com/tuyile006-p-12605523.html</t>
+  </si>
+  <si>
+    <t>C# 彻底搞懂async/await</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/xiaojidanbai/p/13224172.html</t>
+  </si>
+  <si>
+    <r>
+      <t>C# Task</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详解</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3183,10 +3209,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3197,13 +3230,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3403,6 +3429,14 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.8"/>
@@ -3849,7 +3883,7 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3967,14 +4001,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3998,7 +4035,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4031,7 +4068,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4720,6 +4757,53 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="342900"/>
+          <a:ext cx="7381875" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -5009,18 +5093,18 @@
   <sheetPr/>
   <dimension ref="B4:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
@@ -5043,7 +5127,7 @@
       </c>
     </row>
     <row r="11" spans="6:6">
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5073,11 +5157,11 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
@@ -5120,11 +5204,11 @@
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
@@ -5147,22 +5231,22 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
@@ -5410,107 +5494,107 @@
       </c>
     </row>
     <row r="188" spans="2:8">
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
     </row>
     <row r="189" spans="2:8">
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
     </row>
     <row r="190" spans="2:8">
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
     </row>
     <row r="191" spans="2:8">
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
     </row>
     <row r="192" spans="2:8">
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
     </row>
     <row r="193" spans="2:8">
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
     </row>
     <row r="199" spans="2:4">
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
     </row>
     <row r="200" ht="15" spans="2:4">
-      <c r="B200" s="25" t="s">
+      <c r="B200" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
     </row>
     <row r="201" ht="15" spans="2:4">
-      <c r="B201" s="25" t="s">
+      <c r="B201" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5624,6 +5708,56 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B19:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" ht="37" customHeight="1" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" ht="37" customHeight="1" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B27" r:id="rId2" display="C# Task详解" tooltip="https://www.cnblogs.com/xiaojidanbai/p/13224172.html"/>
+    <hyperlink ref="B25" r:id="rId2" display="https://www.cnblogs.com/xiaojidanbai/p/13224172.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5648,7 +5782,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5658,276 +5792,276 @@
       </c>
     </row>
     <row r="5" ht="15" spans="2:2">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:2">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" spans="2:2">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" ht="15" spans="2:2">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" ht="15" spans="2:2">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" ht="15" spans="2:2">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:2">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="18" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" ht="30" spans="2:2">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" ht="30" spans="2:2">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="31" spans="5:7">
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="18">
+      <c r="B32" s="19">
         <v>1</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="19">
         <v>2</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="19">
         <v>3</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="19">
         <v>4</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>5</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>6</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="33" s="14" customFormat="1" spans="2:8">
-      <c r="B33" s="19" t="s">
+    <row r="33" s="15" customFormat="1" spans="2:8">
+      <c r="B33" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" s="14" customFormat="1" ht="14.25" spans="2:9">
-      <c r="B34" s="14">
+    <row r="34" s="15" customFormat="1" ht="14.25" spans="2:9">
+      <c r="B34" s="15">
         <v>0</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="15">
         <v>0</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" s="14" customFormat="1" ht="27" spans="2:9">
-      <c r="B35" s="14" t="s">
+    <row r="35" s="15" customFormat="1" ht="27" spans="2:9">
+      <c r="B35" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" s="14" customFormat="1" ht="27" spans="2:9">
-      <c r="B36" s="14" t="s">
+    <row r="36" s="15" customFormat="1" ht="27" spans="2:9">
+      <c r="B36" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" s="14" customFormat="1" ht="27" spans="2:9">
-      <c r="B37" s="14" t="s">
+    <row r="37" s="15" customFormat="1" ht="27" spans="2:9">
+      <c r="B37" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I37" s="23" t="s">
+      <c r="I37" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" s="14" customFormat="1" spans="2:7">
-      <c r="B38" s="14" t="s">
+    <row r="38" s="15" customFormat="1" spans="2:7">
+      <c r="B38" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" s="14" customFormat="1"/>
-    <row r="40" s="14" customFormat="1"/>
-    <row r="41" s="14" customFormat="1"/>
-    <row r="42" s="14" customFormat="1"/>
-    <row r="43" s="14" customFormat="1"/>
-    <row r="44" s="14" customFormat="1"/>
-    <row r="45" s="14" customFormat="1"/>
-    <row r="46" s="14" customFormat="1"/>
-    <row r="47" s="14" customFormat="1"/>
-    <row r="48" s="14" customFormat="1"/>
-    <row r="49" s="14" customFormat="1"/>
-    <row r="50" s="14" customFormat="1"/>
+    <row r="39" s="15" customFormat="1"/>
+    <row r="40" s="15" customFormat="1"/>
+    <row r="41" s="15" customFormat="1"/>
+    <row r="42" s="15" customFormat="1"/>
+    <row r="43" s="15" customFormat="1"/>
+    <row r="44" s="15" customFormat="1"/>
+    <row r="45" s="15" customFormat="1"/>
+    <row r="46" s="15" customFormat="1"/>
+    <row r="47" s="15" customFormat="1"/>
+    <row r="48" s="15" customFormat="1"/>
+    <row r="49" s="15" customFormat="1"/>
+    <row r="50" s="15" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5945,24 +6079,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="124.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="124.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="8" customWidth="1"/>
     <col min="7" max="7" width="21.375" customWidth="1"/>
-    <col min="8" max="8" width="28.125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="28.125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>115</v>
       </c>
       <c r="E3" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5970,313 +6104,313 @@
       <c r="B4" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="10"/>
       <c r="E4" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>121</v>
       </c>
       <c r="G4" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="12" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="12" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="12" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="12" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="12" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="12" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="12" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="12" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="12" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="12" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="14" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6303,7 +6437,7 @@
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
@@ -6379,7 +6513,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>193</v>
       </c>
       <c r="C5" t="s">
@@ -6448,132 +6582,132 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6632,7 +6766,7 @@
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6698,7 +6832,7 @@
       </c>
     </row>
     <row r="33" spans="8:8">
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="3" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6709,7 +6843,7 @@
       <c r="C35" t="s">
         <v>248</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>249</v>
       </c>
       <c r="G35" t="s">
@@ -6718,11 +6852,11 @@
       <c r="H35" t="s">
         <v>185</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="J35" s="1"/>
+      <c r="L35" s="1"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
@@ -6731,7 +6865,7 @@
       <c r="D36" t="s">
         <v>253</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6741,7 +6875,7 @@
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>256</v>
       </c>
     </row>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,29 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="2" activeTab="12"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
     <sheet name="Job时间设置" sheetId="12" r:id="rId2"/>
-    <sheet name="名词解释" sheetId="11" r:id="rId3"/>
-    <sheet name="cbs流程" sheetId="2" r:id="rId4"/>
-    <sheet name="目的港流程整理" sheetId="10" r:id="rId5"/>
-    <sheet name="客户供应商仓库" sheetId="9" r:id="rId6"/>
-    <sheet name="菜单配置" sheetId="3" r:id="rId7"/>
-    <sheet name="cbs-开发调试" sheetId="4" r:id="rId8"/>
-    <sheet name="git设置" sheetId="5" r:id="rId9"/>
-    <sheet name="swagger" sheetId="6" r:id="rId10"/>
-    <sheet name="发布流程" sheetId="7" r:id="rId11"/>
-    <sheet name="后端人员" sheetId="8" r:id="rId12"/>
-    <sheet name="异步" sheetId="13" r:id="rId13"/>
+    <sheet name="账号" sheetId="14" r:id="rId3"/>
+    <sheet name="名词解释" sheetId="11" r:id="rId4"/>
+    <sheet name="cbs流程" sheetId="2" r:id="rId5"/>
+    <sheet name="目的港流程整理" sheetId="10" r:id="rId6"/>
+    <sheet name="客户供应商仓库" sheetId="9" r:id="rId7"/>
+    <sheet name="菜单配置" sheetId="3" r:id="rId8"/>
+    <sheet name="cbs-开发调试" sheetId="4" r:id="rId9"/>
+    <sheet name="git设置" sheetId="5" r:id="rId10"/>
+    <sheet name="swagger" sheetId="6" r:id="rId11"/>
+    <sheet name="发布流程" sheetId="7" r:id="rId12"/>
+    <sheet name="后端人员" sheetId="8" r:id="rId13"/>
+    <sheet name="异步" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="280">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -490,6 +491,12 @@
     <t>*/1</t>
   </si>
   <si>
+    <t>托单、主分单功能</t>
+  </si>
+  <si>
+    <t>yuzeliang</t>
+  </si>
+  <si>
     <t>BOL单</t>
   </si>
   <si>
@@ -3184,6 +3191,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>C# Task</t>
     </r>
     <r>
@@ -4001,11 +4015,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5100,11 +5111,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
@@ -5157,11 +5168,11 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
@@ -5204,11 +5215,11 @@
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
@@ -5231,22 +5242,22 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
@@ -5556,45 +5567,45 @@
       <c r="H193" s="1"/>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
     </row>
     <row r="199" spans="2:4">
-      <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
     </row>
     <row r="200" ht="15" spans="2:4">
-      <c r="B200" s="26" t="s">
+      <c r="B200" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
     </row>
     <row r="201" ht="15" spans="2:4">
-      <c r="B201" s="26" t="s">
+      <c r="B201" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" s="6"/>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5605,6 +5616,115 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:L73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H35" t="s">
+        <v>187</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" t="s">
+        <v>255</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" t="s">
+        <v>259</v>
+      </c>
+      <c r="D41" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="10:10">
+      <c r="J47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D35" r:id="rId2" display="li.bin@tolead.com" tooltip="mailto:li.bin@tolead.com"/>
+    <hyperlink ref="C39" r:id="rId3" display="http://git.tolead.com:18070/users/sign_in" tooltip="http://git.tolead.com:18070/users/sign_in"/>
+    <hyperlink ref="H33" r:id="rId4" display="http://git.tolead.com:18070/otms/cbs-client.git" tooltip="http://git.tolead.com:18070/otms/cbs-client.git"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:D53"/>
@@ -5617,20 +5737,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D53" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5640,7 +5760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:D5"/>
@@ -5653,20 +5773,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5675,7 +5795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:C5"/>
@@ -5691,18 +5811,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5711,12 +5831,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B19:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -5724,30 +5844,30 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="2"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5782,7 +5902,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5792,276 +5912,276 @@
       </c>
     </row>
     <row r="5" ht="15" spans="2:2">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:2">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" spans="2:2">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" ht="15" spans="2:2">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" ht="15" spans="2:2">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" ht="15" spans="2:2">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:2">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" ht="30" spans="2:2">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" ht="30" spans="2:2">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="31" spans="5:7">
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="19">
+      <c r="B32" s="18">
         <v>1</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="18">
         <v>2</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>3</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>4</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="18">
         <v>5</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="18">
         <v>6</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="33" s="15" customFormat="1" spans="2:8">
-      <c r="B33" s="20" t="s">
+    <row r="33" s="14" customFormat="1" spans="2:8">
+      <c r="B33" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" s="15" customFormat="1" ht="14.25" spans="2:9">
-      <c r="B34" s="15">
+    <row r="34" s="14" customFormat="1" ht="14.25" spans="2:9">
+      <c r="B34" s="14">
         <v>0</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="14">
         <v>0</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" s="15" customFormat="1" ht="27" spans="2:9">
-      <c r="B35" s="15" t="s">
+    <row r="35" s="14" customFormat="1" ht="27" spans="2:9">
+      <c r="B35" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" s="15" customFormat="1" ht="27" spans="2:9">
-      <c r="B36" s="15" t="s">
+    <row r="36" s="14" customFormat="1" ht="27" spans="2:9">
+      <c r="B36" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" s="15" customFormat="1" ht="27" spans="2:9">
-      <c r="B37" s="15" t="s">
+    <row r="37" s="14" customFormat="1" ht="27" spans="2:9">
+      <c r="B37" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" s="15" customFormat="1" spans="2:7">
-      <c r="B38" s="15" t="s">
+    <row r="38" s="14" customFormat="1" spans="2:7">
+      <c r="B38" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" s="15" customFormat="1"/>
-    <row r="40" s="15" customFormat="1"/>
-    <row r="41" s="15" customFormat="1"/>
-    <row r="42" s="15" customFormat="1"/>
-    <row r="43" s="15" customFormat="1"/>
-    <row r="44" s="15" customFormat="1"/>
-    <row r="45" s="15" customFormat="1"/>
-    <row r="46" s="15" customFormat="1"/>
-    <row r="47" s="15" customFormat="1"/>
-    <row r="48" s="15" customFormat="1"/>
-    <row r="49" s="15" customFormat="1"/>
-    <row r="50" s="15" customFormat="1"/>
+    <row r="39" s="14" customFormat="1"/>
+    <row r="40" s="14" customFormat="1"/>
+    <row r="41" s="14" customFormat="1"/>
+    <row r="42" s="14" customFormat="1"/>
+    <row r="43" s="14" customFormat="1"/>
+    <row r="44" s="14" customFormat="1"/>
+    <row r="45" s="14" customFormat="1"/>
+    <row r="46" s="14" customFormat="1"/>
+    <row r="47" s="14" customFormat="1"/>
+    <row r="48" s="14" customFormat="1"/>
+    <row r="49" s="14" customFormat="1"/>
+    <row r="50" s="14" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6069,6 +6189,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B5:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7">
+        <v>123123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:H66"/>
@@ -6079,339 +6231,339 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="124.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="124.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="7" customWidth="1"/>
     <col min="7" max="7" width="21.375" customWidth="1"/>
-    <col min="8" max="8" width="28.125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="28.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="10"/>
+        <v>120</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="9"/>
       <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="3:4">
+      <c r="C5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="3:4">
+      <c r="C6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D6" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="3:4">
+      <c r="C11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" ht="54" spans="3:4">
+      <c r="C12" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="3:4">
-      <c r="C5" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="3:4">
-      <c r="C6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="3:4">
-      <c r="C11" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" ht="54" spans="3:4">
-      <c r="C12" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>131</v>
+      <c r="D12" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>133</v>
+      <c r="C13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
-      <c r="C17" s="12" t="s">
-        <v>134</v>
+      <c r="C17" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
-      <c r="C18" s="12" t="s">
-        <v>135</v>
+      <c r="C18" s="11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
-      <c r="C19" s="12" t="s">
-        <v>136</v>
+      <c r="C19" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
-      <c r="C20" s="12" t="s">
-        <v>137</v>
+      <c r="C20" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
-      <c r="C21" s="12" t="s">
-        <v>138</v>
+      <c r="C21" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
-      <c r="C22" s="12" t="s">
-        <v>139</v>
+      <c r="C22" s="11" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
-      <c r="C23" s="12" t="s">
-        <v>140</v>
+      <c r="C23" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
-      <c r="C24" s="12" t="s">
-        <v>141</v>
+      <c r="C24" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
-      <c r="C25" s="12" t="s">
-        <v>142</v>
+      <c r="C25" s="11" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
-      <c r="C26" s="12" t="s">
-        <v>143</v>
+      <c r="C26" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
-      <c r="C27" s="13" t="s">
-        <v>144</v>
+      <c r="C27" s="12" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
-      <c r="C28" s="12" t="s">
-        <v>145</v>
+      <c r="C28" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
-      <c r="C29" s="12" t="s">
-        <v>146</v>
+      <c r="C29" s="11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
-      <c r="C30" s="12" t="s">
-        <v>147</v>
+      <c r="C30" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
-      <c r="C31" s="12" t="s">
-        <v>148</v>
+      <c r="C31" s="11" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
-      <c r="C32" s="12" t="s">
-        <v>149</v>
+      <c r="C32" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
-      <c r="C33" s="12" t="s">
-        <v>150</v>
+      <c r="C33" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
-      <c r="C34" s="12" t="s">
-        <v>151</v>
+      <c r="C34" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
-      <c r="C35" s="12" t="s">
-        <v>152</v>
+      <c r="C35" s="11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
-      <c r="C36" s="12" t="s">
-        <v>153</v>
+      <c r="C36" s="11" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
-      <c r="C37" s="12" t="s">
-        <v>154</v>
+      <c r="C37" s="11" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
-      <c r="C38" s="12" t="s">
-        <v>155</v>
+      <c r="C38" s="11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
-      <c r="C39" s="12" t="s">
-        <v>156</v>
+      <c r="C39" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
-      <c r="C40" s="12" t="s">
-        <v>157</v>
+      <c r="C40" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
-      <c r="C41" s="12" t="s">
-        <v>158</v>
+      <c r="C41" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
-      <c r="C42" s="12" t="s">
-        <v>159</v>
+      <c r="C42" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
-      <c r="C43" s="12" t="s">
-        <v>160</v>
+      <c r="C43" s="11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
-      <c r="C44" s="12" t="s">
-        <v>161</v>
+      <c r="C44" s="11" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
-      <c r="C45" s="12" t="s">
-        <v>162</v>
+      <c r="C45" s="11" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
-      <c r="C46" s="12" t="s">
-        <v>163</v>
+      <c r="C46" s="11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
-      <c r="C47" s="12" t="s">
-        <v>164</v>
+      <c r="C47" s="11" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
-      <c r="C48" s="12" t="s">
-        <v>165</v>
+      <c r="C48" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
-      <c r="C49" s="12" t="s">
-        <v>166</v>
+      <c r="C49" s="11" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
-      <c r="C50" s="12" t="s">
-        <v>167</v>
+      <c r="C50" s="11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
-      <c r="C51" s="12" t="s">
-        <v>168</v>
+      <c r="C51" s="11" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
-      <c r="C52" s="12" t="s">
-        <v>169</v>
+      <c r="C52" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
-      <c r="C53" s="12" t="s">
-        <v>170</v>
+      <c r="C53" s="11" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
-      <c r="C54" s="12" t="s">
-        <v>171</v>
+      <c r="C54" s="11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
-      <c r="C55" s="12" t="s">
-        <v>172</v>
+      <c r="C55" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
-      <c r="C56" s="12" t="s">
-        <v>173</v>
+      <c r="C56" s="11" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
-      <c r="C57" s="12" t="s">
-        <v>174</v>
+      <c r="C57" s="11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
-      <c r="C58" s="12" t="s">
-        <v>175</v>
+      <c r="C58" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
-      <c r="C59" s="12" t="s">
-        <v>176</v>
+      <c r="C59" s="11" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
-      <c r="C60" s="12" t="s">
-        <v>177</v>
+      <c r="C60" s="11" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
-      <c r="C61" s="12" t="s">
-        <v>178</v>
+      <c r="C61" s="11" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
-      <c r="C62" s="12" t="s">
-        <v>179</v>
+      <c r="C62" s="11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
-      <c r="C63" s="12" t="s">
-        <v>180</v>
+      <c r="C63" s="11" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
-      <c r="C64" s="12" t="s">
-        <v>181</v>
+      <c r="C64" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
-      <c r="C66" s="14" t="s">
-        <v>182</v>
+      <c r="C66" s="13" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -6420,7 +6572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:O13"/>
@@ -6433,18 +6585,18 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -6458,7 +6610,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -6466,28 +6618,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -6498,7 +6650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B5:K9"/>
@@ -6513,53 +6665,53 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9">
-      <c r="B5" s="6" t="s">
-        <v>193</v>
+      <c r="B5" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -6568,7 +6720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -6582,133 +6734,133 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="4" spans="2:2">
-      <c r="B4" s="4" t="s">
-        <v>206</v>
+      <c r="B4" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="4" t="s">
-        <v>207</v>
+      <c r="B5" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="4" t="s">
-        <v>208</v>
+      <c r="B6" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="4" t="s">
-        <v>209</v>
+      <c r="B7" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="5" t="s">
-        <v>210</v>
+      <c r="B8" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="4" t="s">
-        <v>211</v>
+      <c r="B9" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="4" t="s">
-        <v>212</v>
+      <c r="B10" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="5" t="s">
-        <v>213</v>
+      <c r="B11" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="4" t="s">
-        <v>214</v>
+      <c r="B12" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="5" t="s">
-        <v>215</v>
+      <c r="B13" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="4" t="s">
-        <v>216</v>
+      <c r="B14" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="5" t="s">
-        <v>217</v>
+      <c r="B15" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="4" t="s">
-        <v>218</v>
+      <c r="B16" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="4" t="s">
-        <v>219</v>
+      <c r="B17" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="5" t="s">
-        <v>220</v>
+      <c r="B18" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="4" t="s">
-        <v>221</v>
+      <c r="B19" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="5" t="s">
-        <v>222</v>
+      <c r="B20" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="5" t="s">
-        <v>223</v>
+      <c r="B21" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="5" t="s">
-        <v>224</v>
+      <c r="B22" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="4" t="s">
-        <v>225</v>
+      <c r="B23" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="5" t="s">
-        <v>226</v>
+      <c r="B24" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="5" t="s">
-        <v>227</v>
+      <c r="B25" s="4" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="5" t="s">
-        <v>228</v>
+      <c r="B26" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="5" t="s">
-        <v>229</v>
+      <c r="B27" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="4" t="s">
-        <v>230</v>
+      <c r="B28" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="5" t="s">
-        <v>231</v>
+      <c r="B29" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -6717,7 +6869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:C41"/>
@@ -6733,46 +6885,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -6783,7 +6935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:B7"/>
@@ -6796,130 +6948,21 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:L73"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8">
-      <c r="H33" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35" t="s">
-        <v>247</v>
-      </c>
-      <c r="C35" t="s">
-        <v>248</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G35" t="s">
-        <v>250</v>
-      </c>
-      <c r="H35" t="s">
-        <v>185</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="3:9">
-      <c r="C36" t="s">
-        <v>252</v>
-      </c>
-      <c r="D36" t="s">
-        <v>253</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41" t="s">
-        <v>257</v>
-      </c>
-      <c r="D41" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="47" spans="10:10">
-      <c r="J47" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
-        <v>263</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D35" r:id="rId2" display="li.bin@tolead.com" tooltip="mailto:li.bin@tolead.com"/>
-    <hyperlink ref="C39" r:id="rId3" display="http://git.tolead.com:18070/users/sign_in" tooltip="http://git.tolead.com:18070/users/sign_in"/>
-    <hyperlink ref="H33" r:id="rId4" display="http://git.tolead.com:18070/otms/cbs-client.git" tooltip="http://git.tolead.com:18070/otms/cbs-client.git"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/import.xlsx
+++ b/import.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="283">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -495,6 +495,15 @@
   </si>
   <si>
     <t>yuzeliang</t>
+  </si>
+  <si>
+    <t>黄磊账号</t>
+  </si>
+  <si>
+    <t>测试正式都这个</t>
+  </si>
+  <si>
+    <t>huanglei</t>
   </si>
   <si>
     <t>BOL单</t>
@@ -5104,8 +5113,8 @@
   <sheetPr/>
   <dimension ref="B4:H203"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5628,88 +5637,88 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G35" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H35" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D36" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D41" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5737,20 +5746,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D53" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5773,20 +5782,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5811,18 +5820,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5844,7 +5853,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -5852,12 +5861,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -5867,7 +5876,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -6191,13 +6200,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B5:B7"/>
+  <dimension ref="B5:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
@@ -6212,6 +6221,42 @@
     <row r="7" spans="2:2">
       <c r="B7">
         <v>123123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6240,330 +6285,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6585,7 +6630,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6593,10 +6638,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -6610,7 +6655,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -6618,28 +6663,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6666,52 +6711,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6735,132 +6780,132 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6885,46 +6930,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6948,17 +6993,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="286">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -287,6 +287,12 @@
       </rPr>
       <t>dotnet build</t>
     </r>
+  </si>
+  <si>
+    <t>统一xaml样式插件</t>
+  </si>
+  <si>
+    <t>XamlStyler</t>
   </si>
   <si>
     <t>quartz</t>
@@ -3152,6 +3158,9 @@
   </si>
   <si>
     <t>单个文件看单个修改记录</t>
+  </si>
+  <si>
+    <t>另外工具</t>
   </si>
   <si>
     <t>查看所有</t>
@@ -3232,7 +3241,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3315,6 +3324,12 @@
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3882,10 +3897,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3894,16 +3909,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3912,16 +3927,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3933,98 +3945,101 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4101,6 +4116,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4685,6 +4703,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="7772400"/>
+          <a:ext cx="9563100" cy="5457825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5111,10 +5171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:H203"/>
+  <dimension ref="B4:H206"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:D66"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5615,6 +5675,14 @@
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
+    </row>
+    <row r="206" ht="18" spans="2:5">
+      <c r="B206" t="s">
+        <v>78</v>
+      </c>
+      <c r="E206" s="26" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5629,96 +5697,99 @@
   <sheetPr/>
   <dimension ref="B2:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C35" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G35" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H35" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D36" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D41" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12">
       <c r="C45" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="L45" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5746,20 +5817,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D53" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5782,20 +5853,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5820,18 +5891,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -5853,7 +5924,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -5861,12 +5932,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -5876,7 +5947,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5912,110 +5983,110 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" ht="15" spans="2:2">
       <c r="B5" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
       <c r="B6" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:2">
       <c r="B7" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
       <c r="B8" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
       <c r="B10" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
       <c r="B11" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
       <c r="B12" s="16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
       <c r="B14" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" spans="2:2">
       <c r="B15" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" ht="15" spans="2:2">
       <c r="B19" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" ht="15" spans="2:2">
       <c r="B20" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
       <c r="B21" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" ht="15" spans="2:2">
       <c r="B22" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:2">
       <c r="B23" s="17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" ht="30" spans="2:2">
       <c r="B24" s="17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" ht="30" spans="2:2">
       <c r="B25" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -6043,25 +6114,25 @@
     </row>
     <row r="33" s="14" customFormat="1" spans="2:8">
       <c r="B33" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" s="14" customFormat="1" ht="14.25" spans="2:9">
@@ -6072,111 +6143,111 @@
         <v>0</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B35" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="G35" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B36" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="F36" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B37" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="F37" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" s="14" customFormat="1" spans="2:7">
       <c r="B38" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" s="14" customFormat="1"/>
@@ -6202,20 +6273,20 @@
   <sheetPr/>
   <dimension ref="B5:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -6225,15 +6296,15 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -6285,330 +6356,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6630,7 +6701,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6638,10 +6709,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -6655,7 +6726,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -6663,28 +6734,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -6711,52 +6782,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6780,132 +6851,132 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6930,46 +7001,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6993,17 +7064,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="290">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -293,6 +293,18 @@
   </si>
   <si>
     <t>XamlStyler</t>
+  </si>
+  <si>
+    <t>后台接口逻辑DB逻辑</t>
+  </si>
+  <si>
+    <t>null字段会忽略更新</t>
+  </si>
+  <si>
+    <t>空串字段会更新为空串</t>
+  </si>
+  <si>
+    <t>有值到无值</t>
   </si>
   <si>
     <t>quartz</t>
@@ -4039,7 +4051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4119,6 +4131,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5171,10 +5186,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:H206"/>
+  <dimension ref="A4:H216"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="E206" sqref="E206"/>
+    <sheetView topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="K198" sqref="K198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5682,6 +5697,61 @@
       </c>
       <c r="E206" s="26" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="5"/>
+      <c r="B212" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C212" s="27"/>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5">
+      <c r="B216" t="s">
+        <v>82</v>
+      </c>
+      <c r="E216" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5697,99 +5767,99 @@
   <sheetPr/>
   <dimension ref="B2:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C35" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G35" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H35" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D36" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D41" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L45" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5809,7 +5879,7 @@
   <sheetPr/>
   <dimension ref="B1:D53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5817,20 +5887,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D53" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5853,20 +5923,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -5891,18 +5961,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5924,7 +5994,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -5932,12 +6002,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -5947,7 +6017,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5983,110 +6053,110 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" ht="15" spans="2:2">
       <c r="B5" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
       <c r="B6" s="16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:2">
       <c r="B7" s="16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
       <c r="B8" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
       <c r="B10" s="16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
       <c r="B11" s="16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
       <c r="B12" s="16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
       <c r="B14" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" spans="2:2">
       <c r="B15" s="16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" ht="15" spans="2:2">
       <c r="B19" s="17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" ht="15" spans="2:2">
       <c r="B20" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
       <c r="B21" s="17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" ht="15" spans="2:2">
       <c r="B22" s="17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:2">
       <c r="B23" s="17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" ht="30" spans="2:2">
       <c r="B24" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" ht="30" spans="2:2">
       <c r="B25" s="17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -6114,25 +6184,25 @@
     </row>
     <row r="33" s="14" customFormat="1" spans="2:8">
       <c r="B33" s="19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" s="14" customFormat="1" ht="14.25" spans="2:9">
@@ -6143,111 +6213,111 @@
         <v>0</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B35" s="14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D35" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="G35" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B36" s="14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D36" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="F36" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B37" s="14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D37" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="F37" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" s="14" customFormat="1" spans="2:7">
       <c r="B38" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" s="14" customFormat="1"/>
@@ -6273,20 +6343,20 @@
   <sheetPr/>
   <dimension ref="B5:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -6296,15 +6366,15 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -6356,330 +6426,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="11" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6701,7 +6771,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6709,10 +6779,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -6726,7 +6796,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -6734,28 +6804,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="O8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6782,52 +6852,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" t="s">
         <v>206</v>
       </c>
-      <c r="D6" t="s">
-        <v>202</v>
-      </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6851,132 +6921,132 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -7001,46 +7071,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -7064,17 +7134,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="294">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -522,6 +522,18 @@
   </si>
   <si>
     <t>huanglei</t>
+  </si>
+  <si>
+    <t>空运</t>
+  </si>
+  <si>
+    <t>ray.wang</t>
+  </si>
+  <si>
+    <t>bms测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huanglei </t>
   </si>
   <si>
     <t>BOL单</t>
@@ -5775,91 +5787,91 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C35" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G35" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H35" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D36" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D41" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L45" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5887,20 +5899,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D53" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5923,20 +5935,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5961,18 +5973,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5994,7 +6006,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6002,12 +6014,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -6017,7 +6029,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -6341,13 +6353,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B5:D18"/>
+  <dimension ref="B5:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
@@ -6398,6 +6410,33 @@
     <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6426,330 +6465,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="11" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6771,7 +6810,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6779,10 +6818,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -6796,7 +6835,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -6804,28 +6843,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O8" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -6852,52 +6891,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" t="s">
         <v>210</v>
       </c>
-      <c r="D6" t="s">
-        <v>206</v>
-      </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6921,132 +6960,132 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -7071,46 +7110,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -7134,17 +7173,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12450" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="295">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -143,7 +143,7 @@
     <t>ranger-jwl</t>
   </si>
   <si>
-    <t>ranger-sz   123456或999999</t>
+    <t>Ranger-SZ   999999</t>
   </si>
   <si>
     <t>阿部阿部</t>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>huanglei</t>
+  </si>
+  <si>
+    <t>ranger-sz   123456或999999</t>
   </si>
   <si>
     <t>空运</t>
@@ -5200,8 +5203,8 @@
   <sheetPr/>
   <dimension ref="A4:H216"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="K198" sqref="K198"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5787,91 +5790,91 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L45" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5899,20 +5902,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D53" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5935,20 +5938,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -5973,18 +5976,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -6006,7 +6009,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6014,12 +6017,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -6029,7 +6032,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -6355,7 +6358,7 @@
   <sheetPr/>
   <dimension ref="B5:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -6409,15 +6412,15 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -6427,13 +6430,13 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H28">
         <v>123</v>
@@ -6465,330 +6468,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6810,7 +6813,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6818,10 +6821,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -6835,7 +6838,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -6843,28 +6846,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -6891,52 +6894,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6960,132 +6963,132 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -7110,46 +7113,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -7173,17 +7176,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12450"/>
+    <workbookView windowWidth="28125" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="297">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -537,6 +537,12 @@
   </si>
   <si>
     <t xml:space="preserve">huanglei </t>
+  </si>
+  <si>
+    <t>trutleky</t>
+  </si>
+  <si>
+    <t>计划</t>
   </si>
   <si>
     <t>BOL单</t>
@@ -5203,7 +5209,7 @@
   <sheetPr/>
   <dimension ref="A4:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -5790,91 +5796,91 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G35" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D41" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L45" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -5902,20 +5908,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D53" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5938,20 +5944,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5976,18 +5982,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -6009,7 +6015,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6017,12 +6023,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -6032,7 +6038,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -6356,10 +6362,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B5:H28"/>
+  <dimension ref="B5:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6440,6 +6446,17 @@
       </c>
       <c r="H28">
         <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31">
+        <v>123456</v>
+      </c>
+      <c r="D31" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -6468,330 +6485,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -6813,7 +6830,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6821,10 +6838,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -6838,7 +6855,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -6846,28 +6863,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6894,52 +6911,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6963,132 +6980,132 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -7113,46 +7130,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -7176,17 +7193,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12450" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="299">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -95,7 +95,13 @@
     <t>NETGRAR</t>
   </si>
   <si>
+    <t>ToLead</t>
+  </si>
+  <si>
     <t>ToleadNet123</t>
+  </si>
+  <si>
+    <t>tolead123</t>
   </si>
   <si>
     <t>tci-xmq</t>
@@ -5209,8 +5215,8 @@
   <sheetPr/>
   <dimension ref="A4:H216"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5326,29 +5332,35 @@
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
@@ -5357,7 +5369,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
@@ -5366,15 +5378,15 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E53">
         <v>123456</v>
@@ -5385,39 +5397,39 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="2:2">
@@ -5427,186 +5439,186 @@
     </row>
     <row r="66" spans="2:7">
       <c r="B66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C146" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="188" spans="2:8">
@@ -5620,7 +5632,7 @@
     </row>
     <row r="189" spans="2:8">
       <c r="B189" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -5640,7 +5652,7 @@
     </row>
     <row r="191" spans="2:8">
       <c r="B191" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -5651,7 +5663,7 @@
     </row>
     <row r="192" spans="2:8">
       <c r="B192" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -5662,7 +5674,7 @@
     </row>
     <row r="193" spans="2:8">
       <c r="B193" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -5678,7 +5690,7 @@
     </row>
     <row r="198" spans="2:4">
       <c r="B198" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
@@ -5690,14 +5702,14 @@
     </row>
     <row r="200" ht="15" spans="2:4">
       <c r="B200" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
     <row r="201" ht="15" spans="2:4">
       <c r="B201" s="25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -5714,10 +5726,10 @@
     </row>
     <row r="206" ht="18" spans="2:5">
       <c r="B206" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E206" s="26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5743,7 +5755,7 @@
     <row r="212" spans="1:8">
       <c r="A212" s="5"/>
       <c r="B212" s="27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C212" s="27"/>
       <c r="D212" s="27"/>
@@ -5764,15 +5776,15 @@
     </row>
     <row r="214" spans="2:2">
       <c r="B214" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="216" spans="2:5">
       <c r="B216" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E216" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5796,91 +5808,91 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C35" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G35" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H35" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D36" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D41" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5908,20 +5920,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D53" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5944,20 +5956,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5982,18 +5994,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -6015,7 +6027,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6023,12 +6035,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -6038,7 +6050,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -6074,110 +6086,110 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" ht="15" spans="2:2">
       <c r="B5" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
       <c r="B6" s="16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:2">
       <c r="B7" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
       <c r="B8" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
       <c r="B10" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
       <c r="B11" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
       <c r="B12" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
       <c r="B14" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" spans="2:2">
       <c r="B15" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" ht="15" spans="2:2">
       <c r="B19" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" ht="15" spans="2:2">
       <c r="B20" s="17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
       <c r="B21" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" ht="15" spans="2:2">
       <c r="B22" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:2">
       <c r="B23" s="17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" ht="30" spans="2:2">
       <c r="B24" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" ht="30" spans="2:2">
       <c r="B25" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -6205,25 +6217,25 @@
     </row>
     <row r="33" s="14" customFormat="1" spans="2:8">
       <c r="B33" s="19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" s="14" customFormat="1" ht="14.25" spans="2:9">
@@ -6234,111 +6246,111 @@
         <v>0</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B35" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="G35" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B36" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="F36" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B37" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="F37" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" s="14" customFormat="1" spans="2:7">
       <c r="B38" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" s="14" customFormat="1"/>
@@ -6364,7 +6376,7 @@
   <sheetPr/>
   <dimension ref="B5:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -6372,12 +6384,12 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -6387,15 +6399,15 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -6405,10 +6417,10 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:2">
@@ -6418,15 +6430,15 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -6436,13 +6448,13 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H28">
         <v>123</v>
@@ -6450,13 +6462,13 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C31">
         <v>123456</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6485,330 +6497,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6830,7 +6842,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6838,13 +6850,13 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="12:15">
@@ -6855,7 +6867,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -6863,28 +6875,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6911,52 +6923,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -6980,132 +6992,132 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -7130,46 +7142,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -7193,17 +7205,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12450"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="300">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -3167,6 +3167,9 @@
   </si>
   <si>
     <t>spiderwolf</t>
+  </si>
+  <si>
+    <t>http://192.168.200.1/users/sign_in</t>
   </si>
   <si>
     <t>邮箱密码</t>
@@ -5215,7 +5218,7 @@
   <sheetPr/>
   <dimension ref="A4:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -5798,10 +5801,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L73"/>
+  <dimension ref="B2:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5816,7 +5819,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:13">
       <c r="B35" t="s">
         <v>267</v>
       </c>
@@ -5837,62 +5840,65 @@
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
+      <c r="M35" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D41" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L45" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5920,20 +5926,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D53" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5956,7 +5962,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -5966,10 +5972,10 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5994,7 +6000,7 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
         <v>256</v>
@@ -6002,10 +6008,10 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -6027,7 +6033,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6035,12 +6041,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -6050,7 +6056,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="301">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -3221,6 +3221,9 @@
   </si>
   <si>
     <t>邵辉  账号</t>
+  </si>
+  <si>
+    <t>正式库</t>
   </si>
   <si>
     <t>发布流程</t>
@@ -5803,7 +5806,7 @@
   <sheetPr/>
   <dimension ref="B2:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
@@ -5916,10 +5919,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D53"/>
+  <dimension ref="B1:D58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5940,6 +5943,19 @@
       </c>
       <c r="D53" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
@@ -5962,7 +5978,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -5972,10 +5988,10 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -6000,7 +6016,7 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
         <v>256</v>
@@ -6008,10 +6024,10 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -6026,14 +6042,14 @@
   <dimension ref="B19:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6041,12 +6057,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -6056,7 +6072,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -6840,7 +6856,7 @@
   <sheetPr/>
   <dimension ref="B2:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,30 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="4" activeTab="10"/>
+    <workbookView windowWidth="23325" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
     <sheet name="Job时间设置" sheetId="12" r:id="rId2"/>
-    <sheet name="账号" sheetId="14" r:id="rId3"/>
-    <sheet name="名词解释" sheetId="11" r:id="rId4"/>
-    <sheet name="cbs流程" sheetId="2" r:id="rId5"/>
-    <sheet name="目的港流程整理" sheetId="10" r:id="rId6"/>
-    <sheet name="客户供应商仓库" sheetId="9" r:id="rId7"/>
-    <sheet name="菜单配置" sheetId="3" r:id="rId8"/>
-    <sheet name="cbs-开发调试" sheetId="4" r:id="rId9"/>
-    <sheet name="git设置" sheetId="5" r:id="rId10"/>
-    <sheet name="swagger" sheetId="6" r:id="rId11"/>
-    <sheet name="发布流程" sheetId="7" r:id="rId12"/>
-    <sheet name="后端人员" sheetId="8" r:id="rId13"/>
-    <sheet name="异步" sheetId="13" r:id="rId14"/>
+    <sheet name="更新json" sheetId="15" r:id="rId3"/>
+    <sheet name="账号" sheetId="14" r:id="rId4"/>
+    <sheet name="名词解释" sheetId="11" r:id="rId5"/>
+    <sheet name="cbs流程" sheetId="2" r:id="rId6"/>
+    <sheet name="目的港流程整理" sheetId="10" r:id="rId7"/>
+    <sheet name="客户供应商仓库" sheetId="9" r:id="rId8"/>
+    <sheet name="菜单配置" sheetId="3" r:id="rId9"/>
+    <sheet name="cbs-开发调试" sheetId="4" r:id="rId10"/>
+    <sheet name="git设置" sheetId="5" r:id="rId11"/>
+    <sheet name="swagger" sheetId="6" r:id="rId12"/>
+    <sheet name="发布流程" sheetId="7" r:id="rId13"/>
+    <sheet name="后端人员" sheetId="8" r:id="rId14"/>
+    <sheet name="异步" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="306">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -513,6 +514,21 @@
   </si>
   <si>
     <t>*/1</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "mawbId": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "preparationInfo": </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "type": 52</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
   <si>
     <t>托单、主分单功能</t>
@@ -5804,6 +5820,38 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:M73"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
@@ -5814,94 +5862,94 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G35" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D41" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L45" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5916,12 +5964,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
@@ -5929,30 +5977,30 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D53" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C58">
         <v>123456</v>
@@ -5965,7 +6013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:D5"/>
@@ -5978,20 +6026,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -6000,7 +6048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:C5"/>
@@ -6016,18 +6064,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -6036,7 +6084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B19:C27"/>
@@ -6049,7 +6097,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6057,12 +6105,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -6072,7 +6120,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -6396,6 +6444,48 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B4:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B5:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -6406,12 +6496,12 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -6421,15 +6511,15 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -6452,15 +6542,15 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -6470,13 +6560,13 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H28">
         <v>123</v>
@@ -6484,13 +6574,13 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C31">
         <v>123456</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -6499,7 +6589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:H66"/>
@@ -6519,330 +6609,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="11" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="11" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="11" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="11" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="11" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="11" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="11" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="11" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="11" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="11" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="11" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="11" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="11" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="11" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="11" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="11" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="11" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="11" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="11" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="11" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="11" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="13" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -6851,7 +6941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:O13"/>
@@ -6864,7 +6954,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6872,10 +6962,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M4" t="s">
         <v>34</v>
@@ -6889,7 +6979,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -6897,28 +6987,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O8" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -6929,7 +7019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B5:K9"/>
@@ -6945,52 +7035,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I5" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="I6" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6999,7 +7089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7014,132 +7104,132 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -7148,7 +7238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:C41"/>
@@ -7164,46 +7254,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -7212,36 +7302,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -5237,7 +5237,7 @@
   <sheetPr/>
   <dimension ref="A4:H216"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A195" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -6446,7 +6446,7 @@
   <sheetPr/>
   <dimension ref="B4:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -6488,8 +6488,8 @@
   <sheetPr/>
   <dimension ref="B5:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="307">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>资产文件问题</t>
+  </si>
+  <si>
+    <t>工具-命令行-开发者命令提示</t>
   </si>
   <si>
     <t>msbuild -t:restore</t>
@@ -5237,8 +5240,8 @@
   <sheetPr/>
   <dimension ref="A4:H216"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5715,7 +5718,9 @@
         <v>77</v>
       </c>
       <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
+      <c r="D198" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="199" spans="2:4">
       <c r="B199" s="5"/>
@@ -5724,14 +5729,14 @@
     </row>
     <row r="200" ht="15" spans="2:4">
       <c r="B200" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
     <row r="201" ht="15" spans="2:4">
       <c r="B201" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -5748,10 +5753,10 @@
     </row>
     <row r="206" ht="18" spans="2:5">
       <c r="B206" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E206" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5777,7 +5782,7 @@
     <row r="212" spans="1:8">
       <c r="A212" s="5"/>
       <c r="B212" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C212" s="27"/>
       <c r="D212" s="27"/>
@@ -5798,15 +5803,15 @@
     </row>
     <row r="214" spans="2:2">
       <c r="B214" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="216" spans="2:5">
       <c r="B216" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E216" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -5830,17 +5835,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5862,94 +5867,94 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D36" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5977,30 +5982,30 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D53" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C58">
         <v>123456</v>
@@ -6026,20 +6031,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -6064,18 +6069,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -6097,7 +6102,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6105,12 +6110,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -6120,7 +6125,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -6156,110 +6161,110 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" ht="15" spans="2:2">
       <c r="B5" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
       <c r="B6" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:2">
       <c r="B7" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
       <c r="B8" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
       <c r="B10" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
       <c r="B11" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
       <c r="B12" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
       <c r="B14" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" spans="2:2">
       <c r="B15" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" ht="15" spans="2:2">
       <c r="B19" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" ht="15" spans="2:2">
       <c r="B20" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
       <c r="B21" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" ht="15" spans="2:2">
       <c r="B22" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:2">
       <c r="B23" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" ht="30" spans="2:2">
       <c r="B24" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" ht="30" spans="2:2">
       <c r="B25" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -6287,25 +6292,25 @@
     </row>
     <row r="33" s="14" customFormat="1" spans="2:8">
       <c r="B33" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" s="14" customFormat="1" ht="14.25" spans="2:9">
@@ -6316,111 +6321,111 @@
         <v>0</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B35" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B36" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B37" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" s="14" customFormat="1" spans="2:7">
       <c r="B38" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" s="14" customFormat="1"/>
@@ -6454,27 +6459,27 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6488,7 +6493,7 @@
   <sheetPr/>
   <dimension ref="B5:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -6496,12 +6501,12 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -6511,15 +6516,15 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -6542,15 +6547,15 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -6560,13 +6565,13 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H28">
         <v>123</v>
@@ -6574,13 +6579,13 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C31">
         <v>123456</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6609,330 +6614,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -6954,7 +6959,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6962,10 +6967,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M4" t="s">
         <v>34</v>
@@ -6979,7 +6984,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -6987,28 +6992,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7035,52 +7040,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -7104,132 +7109,132 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -7254,46 +7259,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="308">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>计划</t>
+  </si>
+  <si>
+    <t>正式</t>
   </si>
   <si>
     <t>BOL单</t>
@@ -4470,6 +4473,53 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="6257925"/>
+          <a:ext cx="12020550" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -4511,7 +4561,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4642,7 +4692,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4815,7 +4865,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4904,7 +4954,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5240,8 +5290,8 @@
   <sheetPr/>
   <dimension ref="A4:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="D199" sqref="D199"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="F220" sqref="F220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5835,17 +5885,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5867,94 +5917,94 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5982,25 +6032,25 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D53" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -6031,20 +6081,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -6069,18 +6119,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -6102,7 +6152,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6110,12 +6160,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -6125,7 +6175,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -6491,10 +6541,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B5:H31"/>
+  <dimension ref="B5:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6588,9 +6638,15 @@
         <v>139</v>
       </c>
     </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6614,330 +6670,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -6959,7 +7015,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6967,10 +7023,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M4" t="s">
         <v>34</v>
@@ -6984,7 +7040,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -6992,28 +7048,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -7040,52 +7096,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -7109,132 +7165,132 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -7259,46 +7315,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -5291,7 +5291,7 @@
   <dimension ref="A4:H216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="F220" sqref="F220"/>
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="320">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -315,6 +315,57 @@
   </si>
   <si>
     <t>有值到无值</t>
+  </si>
+  <si>
+    <t>查看windows framework版本</t>
+  </si>
+  <si>
+    <t>%windir%\Microsoft.net\framework</t>
+  </si>
+  <si>
+    <t>找最高版本的目录  比如v4.0.30319</t>
+  </si>
+  <si>
+    <t>然后目录上cmd</t>
+  </si>
+  <si>
+    <t>然后msbuild.exe -version</t>
+  </si>
+  <si>
+    <t>查看core版本</t>
+  </si>
+  <si>
+    <t>c:\program files\dotnet  or c:\program files(x86)\dotnet</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dotnet </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FFA0A1A7"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--list-sdks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dotnet </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FFA0A1A7"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--list-runtimes</t>
+    </r>
   </si>
   <si>
     <t>quartz</t>
@@ -3231,6 +3282,15 @@
   </si>
   <si>
     <t>一览内日期控件给Feild的时候要注意，如果不存在，会导致选时间控件没有确定按钮。</t>
+  </si>
+  <si>
+    <t>推送失败</t>
+  </si>
+  <si>
+    <t>拉取也失败</t>
+  </si>
+  <si>
+    <t>解决：修改的备份。origin-master 合并到master</t>
   </si>
   <si>
     <t>swagger</t>
@@ -3308,7 +3368,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3397,6 +3457,12 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF383A42"/>
+      <name val="DejaVu Sans Mono"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3616,8 +3682,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FFA0A1A7"/>
+      <name val="DejaVu Sans Mono"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3645,6 +3718,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3964,10 +4043,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3976,16 +4055,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3994,18 +4073,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -4015,98 +4091,101 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4189,6 +4268,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4452,6 +4540,90 @@
         <a:xfrm>
           <a:off x="635" y="26279475"/>
           <a:ext cx="6096000" cy="4000500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="38912800"/>
+          <a:ext cx="5895975" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="42062400"/>
+          <a:ext cx="8372475" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5288,10 +5460,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:H216"/>
+  <dimension ref="A4:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5862,6 +6034,57 @@
       </c>
       <c r="E216" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="219" ht="46" customHeight="1" spans="2:5">
+      <c r="B219" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="234" ht="59" customHeight="1" spans="2:5">
+      <c r="B234" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C234" s="28"/>
+      <c r="D234" s="28"/>
+      <c r="E234" s="28"/>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="30" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5885,17 +6108,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5907,104 +6130,117 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:M73"/>
+  <dimension ref="B2:M91"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C35" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="G35" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H35" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D36" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D41" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="L45" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>292</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>302</v>
+      </c>
+      <c r="C89" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -6032,30 +6268,30 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="D53" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C58">
         <v>123456</v>
@@ -6081,20 +6317,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -6119,18 +6355,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6152,7 +6388,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6160,12 +6396,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -6175,7 +6411,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -6211,110 +6447,110 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="15" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" ht="15" spans="2:2">
       <c r="B5" s="16" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
       <c r="B6" s="16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:2">
       <c r="B7" s="16" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
       <c r="B8" s="16" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="16" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
       <c r="B10" s="16" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
       <c r="B11" s="16" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
       <c r="B12" s="16" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="16" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
       <c r="B14" s="16" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" spans="2:2">
       <c r="B15" s="16" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" ht="15" spans="2:2">
       <c r="B19" s="17" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" ht="15" spans="2:2">
       <c r="B20" s="17" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
       <c r="B21" s="17" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" ht="15" spans="2:2">
       <c r="B22" s="17" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:2">
       <c r="B23" s="17" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" ht="30" spans="2:2">
       <c r="B24" s="17" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" ht="30" spans="2:2">
       <c r="B25" s="17" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="15" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -6342,25 +6578,25 @@
     </row>
     <row r="33" s="14" customFormat="1" spans="2:8">
       <c r="B33" s="19" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" s="14" customFormat="1" ht="14.25" spans="2:9">
@@ -6371,111 +6607,111 @@
         <v>0</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E34" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="I34" s="22" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B35" s="14" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B36" s="14" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E36" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="I36" s="23" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B37" s="14" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E37" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="H37" s="14" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" s="14" customFormat="1" spans="2:7">
       <c r="B38" s="14" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C38" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="39" s="14" customFormat="1"/>
@@ -6509,27 +6745,27 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6551,12 +6787,12 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -6566,15 +6802,15 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -6597,15 +6833,15 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -6615,13 +6851,13 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H28">
         <v>123</v>
@@ -6629,18 +6865,18 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C31">
         <v>123456</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -6670,330 +6906,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="11" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="11" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="11" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="11" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="11" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="11" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="11" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="11" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="11" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="11" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="11" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="11" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="11" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="11" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="11" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="11" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="11" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="11" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="11" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="11" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="11" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="11" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="11" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="11" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="11" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="11" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="11" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="11" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="11" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="11" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="11" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="11" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="11" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="11" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="11" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="11" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="11" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="11" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="11" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="11" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="11" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="11" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="11" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="11" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="11" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7015,7 +7251,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -7023,10 +7259,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="L4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="M4" t="s">
         <v>34</v>
@@ -7040,7 +7276,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -7048,28 +7284,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="O7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="O8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -7096,52 +7332,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="I5" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="G6" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="I6" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="K6" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -7165,132 +7401,132 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -7315,46 +7551,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="325">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -335,10 +335,34 @@
     <t>查看core版本</t>
   </si>
   <si>
-    <t>c:\program files\dotnet  or c:\program files(x86)\dotnet</t>
-  </si>
-  <si>
-    <r>
+    <t>64位</t>
+  </si>
+  <si>
+    <t>32位</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c:\program files\dotnet  or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c:\program files(x86)\dotnet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF383A42"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">dotnet </t>
     </r>
     <r>
@@ -353,7 +377,16 @@
     </r>
   </si>
   <si>
-    <r>
+    <t>这里32位了，通常64位目录</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF383A42"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">dotnet </t>
     </r>
     <r>
@@ -603,6 +636,9 @@
     <t>ranger-sz   123456或999999</t>
   </si>
   <si>
+    <t>深圳骊泰</t>
+  </si>
+  <si>
     <t>空运</t>
   </si>
   <si>
@@ -619,6 +655,9 @@
   </si>
   <si>
     <t>计划</t>
+  </si>
+  <si>
+    <t>上海道骊空运部</t>
   </si>
   <si>
     <t>正式</t>
@@ -3690,7 +3729,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3718,12 +3757,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4043,10 +4076,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4055,16 +4088,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4076,10 +4109,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4100,28 +4133,28 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4130,16 +4163,19 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4151,41 +4187,38 @@
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4268,12 +4301,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4597,15 +4624,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4622,7 +4649,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="42062400"/>
+          <a:off x="800100" y="42319575"/>
           <a:ext cx="8372475" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4634,6 +4661,53 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2619375" y="41538525"/>
+          <a:ext cx="3648075" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5453,20 +5527,44 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:H238"/>
+  <dimension ref="A4:J238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="P235" sqref="P235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="2:4">
       <c r="B4" s="24" t="s">
@@ -6068,23 +6166,34 @@
       <c r="B234" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C234" s="28"/>
-      <c r="D234" s="28"/>
-      <c r="E234" s="28"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+    </row>
+    <row r="235" spans="2:6">
+      <c r="B235" t="s">
+        <v>93</v>
+      </c>
+      <c r="F235" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="236" spans="2:2">
-      <c r="B236" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2">
-      <c r="B237" s="29" t="s">
-        <v>94</v>
+      <c r="B236" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10">
+      <c r="B237" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="238" spans="2:2">
-      <c r="B238" s="30" t="s">
-        <v>95</v>
+      <c r="B238" s="28" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -6108,17 +6217,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -6140,107 +6249,107 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C35" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G35" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H35" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D36" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D41" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L45" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C89" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -6268,30 +6377,30 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D53" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C58">
         <v>123456</v>
@@ -6317,20 +6426,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -6355,18 +6464,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C5" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -6388,7 +6497,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6396,12 +6505,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -6411,7 +6520,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -6447,110 +6556,110 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" ht="15" spans="2:2">
       <c r="B5" s="16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
       <c r="B6" s="16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:2">
       <c r="B7" s="16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
       <c r="B8" s="16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
       <c r="B10" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
       <c r="B11" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
       <c r="B12" s="16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
       <c r="B14" s="16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" spans="2:2">
       <c r="B15" s="16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" ht="15" spans="2:2">
       <c r="B19" s="17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" ht="15" spans="2:2">
       <c r="B20" s="17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
       <c r="B21" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" ht="15" spans="2:2">
       <c r="B22" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:2">
       <c r="B23" s="17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" ht="30" spans="2:2">
       <c r="B24" s="17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" ht="30" spans="2:2">
       <c r="B25" s="17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -6578,25 +6687,25 @@
     </row>
     <row r="33" s="14" customFormat="1" spans="2:8">
       <c r="B33" s="19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" s="14" customFormat="1" ht="14.25" spans="2:9">
@@ -6607,111 +6716,111 @@
         <v>0</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B35" s="14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C35" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="G35" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B36" s="14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C36" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="F36" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" s="14" customFormat="1" ht="27" spans="2:9">
       <c r="B37" s="14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C37" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="F37" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" s="14" customFormat="1" spans="2:7">
       <c r="B38" s="14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" s="14" customFormat="1"/>
@@ -6745,27 +6854,27 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6777,45 +6886,77 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B5:H36"/>
+  <dimension ref="B5:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>123123</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>123456</v>
+      </c>
+      <c r="N7">
+        <v>123123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11">
         <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="10:11">
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -6826,22 +6967,50 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:10">
       <c r="B16">
         <v>123456</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12">
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="20" spans="10:15">
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -6851,32 +7020,35 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H28">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C31">
         <v>123456</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>152</v>
+      </c>
+      <c r="E31" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6906,330 +7078,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="11" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="11" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="11" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="11" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="11" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="11" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="11" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="11" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="11" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="11" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="11" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="11" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="11" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="11" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="11" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="11" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="11" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="11" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="11" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="11" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="11" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="11" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7251,7 +7423,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -7259,10 +7431,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M4" t="s">
         <v>34</v>
@@ -7276,7 +7448,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -7284,28 +7456,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="O8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -7332,52 +7504,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="I5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G6" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I6" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -7401,132 +7573,132 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -7551,46 +7723,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,31 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
-    <sheet name="Job时间设置" sheetId="12" r:id="rId2"/>
-    <sheet name="更新json" sheetId="15" r:id="rId3"/>
-    <sheet name="账号" sheetId="14" r:id="rId4"/>
-    <sheet name="名词解释" sheetId="11" r:id="rId5"/>
-    <sheet name="cbs流程" sheetId="2" r:id="rId6"/>
-    <sheet name="目的港流程整理" sheetId="10" r:id="rId7"/>
-    <sheet name="客户供应商仓库" sheetId="9" r:id="rId8"/>
-    <sheet name="菜单配置" sheetId="3" r:id="rId9"/>
-    <sheet name="cbs-开发调试" sheetId="4" r:id="rId10"/>
-    <sheet name="git设置" sheetId="5" r:id="rId11"/>
-    <sheet name="swagger" sheetId="6" r:id="rId12"/>
-    <sheet name="发布流程" sheetId="7" r:id="rId13"/>
-    <sheet name="后端人员" sheetId="8" r:id="rId14"/>
-    <sheet name="异步" sheetId="13" r:id="rId15"/>
+    <sheet name="邮箱" sheetId="16" r:id="rId2"/>
+    <sheet name="Job时间设置" sheetId="12" r:id="rId3"/>
+    <sheet name="更新json" sheetId="15" r:id="rId4"/>
+    <sheet name="账号" sheetId="14" r:id="rId5"/>
+    <sheet name="名词解释" sheetId="11" r:id="rId6"/>
+    <sheet name="cbs流程" sheetId="2" r:id="rId7"/>
+    <sheet name="目的港流程整理" sheetId="10" r:id="rId8"/>
+    <sheet name="客户供应商仓库" sheetId="9" r:id="rId9"/>
+    <sheet name="菜单配置" sheetId="3" r:id="rId10"/>
+    <sheet name="cbs-开发调试" sheetId="4" r:id="rId11"/>
+    <sheet name="git设置" sheetId="5" r:id="rId12"/>
+    <sheet name="swagger" sheetId="6" r:id="rId13"/>
+    <sheet name="发布流程" sheetId="7" r:id="rId14"/>
+    <sheet name="后端人员" sheetId="8" r:id="rId15"/>
+    <sheet name="异步" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="331">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -342,6 +343,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">c:\program files\dotnet  or </t>
     </r>
     <r>
@@ -639,10 +647,22 @@
     <t>深圳骊泰</t>
   </si>
   <si>
+    <t>HYWC-KODA</t>
+  </si>
+  <si>
+    <t>目的站</t>
+  </si>
+  <si>
     <t>空运</t>
   </si>
   <si>
     <t>ray.wang</t>
+  </si>
+  <si>
+    <t>TLSHXJ</t>
+  </si>
+  <si>
+    <t>看集装</t>
   </si>
   <si>
     <t>bms测试</t>
@@ -3291,6 +3311,12 @@
   </si>
   <si>
     <t>1qazxsw2</t>
+  </si>
+  <si>
+    <t>网页地址</t>
+  </si>
+  <si>
+    <t>https://qiye.aliyun.com/alimail/</t>
   </si>
   <si>
     <t>git 注册url</t>
@@ -4719,6 +4745,95 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="6067425" cy="5876925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="171450"/>
+          <a:ext cx="6067425" cy="5876925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
@@ -4760,7 +4875,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4807,7 +4922,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4938,7 +5053,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4986,13 +5101,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5010,7 +5125,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3295650" y="6791325"/>
+          <a:off x="3295650" y="7134225"/>
           <a:ext cx="1066800" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5028,13 +5143,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5052,7 +5167,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="7886700"/>
+          <a:off x="1371600" y="8229600"/>
           <a:ext cx="4486275" cy="3619500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5070,13 +5185,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5094,7 +5209,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6943725" y="7772400"/>
+          <a:off x="6943725" y="8115300"/>
           <a:ext cx="9563100" cy="5457825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5111,7 +5226,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5200,7 +5315,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5560,8 +5675,8 @@
   <sheetPr/>
   <dimension ref="A4:J238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="P235" sqref="P235"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6205,6 +6320,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:C41"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:B7"/>
@@ -6217,17 +6398,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -6236,127 +6417,136 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:M91"/>
+  <dimension ref="B2:M93"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C35" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G35" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H35" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D36" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41" t="s">
-        <v>299</v>
-      </c>
-      <c r="D41" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
-      <c r="C42" t="s">
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
         <v>301</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="45" spans="3:12">
-      <c r="C45" t="s">
-        <v>303</v>
-      </c>
-      <c r="L45" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="47" spans="10:10">
-      <c r="J47" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3">
-      <c r="B89" t="s">
         <v>307</v>
       </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="47" spans="3:12">
+      <c r="C47" t="s">
+        <v>309</v>
+      </c>
+      <c r="L47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>309</v>
+        <v>313</v>
+      </c>
+      <c r="C91" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D35" r:id="rId2" display="li.bin@tolead.com" tooltip="mailto:li.bin@tolead.com"/>
-    <hyperlink ref="C39" r:id="rId3" display="http://git.tolead.com:18070/users/sign_in" tooltip="http://git.tolead.com:18070/users/sign_in"/>
+    <hyperlink ref="C41" r:id="rId3" display="http://git.tolead.com:18070/users/sign_in" tooltip="http://git.tolead.com:18070/users/sign_in"/>
     <hyperlink ref="H33" r:id="rId4" display="http://git.tolead.com:18070/otms/cbs-client.git" tooltip="http://git.tolead.com:18070/otms/cbs-client.git"/>
+    <hyperlink ref="C37" r:id="rId5" display="https://qiye.aliyun.com/alimail/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6364,7 +6554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:D58"/>
@@ -6377,30 +6567,30 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D53" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C58">
         <v>123456</v>
@@ -6413,7 +6603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:D5"/>
@@ -6426,20 +6616,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D5" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -6448,7 +6638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:C5"/>
@@ -6464,18 +6654,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -6484,7 +6674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B19:C27"/>
@@ -6497,7 +6687,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6505,12 +6695,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -6520,7 +6710,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -6537,10 +6727,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6841,7 +7048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B4:B8"/>
@@ -6883,13 +7090,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B5:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6951,12 +7158,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="10:11">
+    <row r="13" spans="10:13">
       <c r="J13" t="s">
         <v>36</v>
       </c>
       <c r="K13" t="s">
         <v>37</v>
+      </c>
+      <c r="M13">
+        <v>123456</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -7005,28 +7215,50 @@
         <v>42</v>
       </c>
     </row>
+    <row r="22" spans="10:12">
+      <c r="J22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L22">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10">
+      <c r="J23" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
       <c r="C25">
         <v>123456</v>
       </c>
+      <c r="J25" t="s">
+        <v>151</v>
+      </c>
+      <c r="L25">
+        <v>123456</v>
+      </c>
+      <c r="M25" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H28">
         <v>123</v>
@@ -7034,21 +7266,21 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C31">
         <v>123456</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -7058,7 +7290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:H66"/>
@@ -7078,330 +7310,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="11" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="11" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="11" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -7410,7 +7642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:O13"/>
@@ -7423,7 +7655,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -7431,10 +7663,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M4" t="s">
         <v>34</v>
@@ -7448,7 +7680,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -7456,28 +7688,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -7488,7 +7720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B5:K9"/>
@@ -7504,52 +7736,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="I5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" t="s">
         <v>240</v>
       </c>
-      <c r="D6" t="s">
-        <v>236</v>
-      </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -7558,7 +7790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7573,202 +7805,136 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B3:C41"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" t="s">
-        <v>282</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/import.xlsx
+++ b/import.xlsx
@@ -4835,17 +4835,17 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4858,8 +4858,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="6257925"/>
-          <a:ext cx="12020550" cy="2181225"/>
+          <a:off x="685800" y="6172200"/>
+          <a:ext cx="13077825" cy="2800350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7095,8 +7095,8 @@
   <sheetPr/>
   <dimension ref="B5:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="344">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -641,6 +641,9 @@
     <t>huanglei</t>
   </si>
   <si>
+    <t>仓库金闻路</t>
+  </si>
+  <si>
     <t>ranger-sz   123456或999999</t>
   </si>
   <si>
@@ -663,6 +666,12 @@
   </si>
   <si>
     <t>看集装</t>
+  </si>
+  <si>
+    <t>Ranger-HY</t>
+  </si>
+  <si>
+    <t>惠阳</t>
   </si>
   <si>
     <t>bms测试</t>
@@ -3356,6 +3365,36 @@
   </si>
   <si>
     <t>解决：修改的备份。origin-master 合并到master</t>
+  </si>
+  <si>
+    <t>阿里云git new</t>
+  </si>
+  <si>
+    <t>阿里云企业地址</t>
+  </si>
+  <si>
+    <t>https://account-devops.aliyun.com/account/invite?sign=910dc837f89a8e83ba5a864d0132ea59&amp;next_url=https%3A%2F%2Fcodeup.aliyun.com%3Forg_id%3D643ca964020eabef3107af64</t>
+  </si>
+  <si>
+    <t>13335657@qq.com</t>
+  </si>
+  <si>
+    <t>vs中账号随意</t>
+  </si>
+  <si>
+    <t>圈Aly</t>
+  </si>
+  <si>
+    <t>克隆账号</t>
+  </si>
+  <si>
+    <t>40949691985655800</t>
+  </si>
+  <si>
+    <t>https 克隆密码</t>
+  </si>
+  <si>
+    <t>圈</t>
   </si>
   <si>
     <t>swagger</t>
@@ -3433,7 +3472,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3455,6 +3494,19 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF595959"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.8"/>
@@ -3498,6 +3550,12 @@
       <sz val="13.5"/>
       <color rgb="FF576B95"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3695,12 +3753,6 @@
     <font>
       <sz val="9.8"/>
       <color rgb="FF9876AA"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.8"/>
-      <color rgb="FF6A8759"/>
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
@@ -4102,10 +4154,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4114,16 +4166,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4132,119 +4184,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4254,37 +4306,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -4293,10 +4354,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4311,25 +4372,28 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5064,7 +5128,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -5125,7 +5189,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3295650" y="7134225"/>
+          <a:off x="3571875" y="7134225"/>
           <a:ext cx="1066800" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5148,7 +5212,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -5209,7 +5273,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6943725" y="8115300"/>
+          <a:off x="7219950" y="8115300"/>
           <a:ext cx="9563100" cy="5457825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5675,18 +5739,18 @@
   <sheetPr/>
   <dimension ref="A4:J238"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
@@ -5739,11 +5803,11 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
@@ -5786,27 +5850,29 @@
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" t="s">
         <v>21</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" t="s">
         <v>23</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="F36" s="7"/>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
@@ -5819,22 +5885,22 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
@@ -6144,97 +6210,97 @@
       <c r="H193" s="1"/>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5" t="s">
+      <c r="C198" s="7"/>
+      <c r="D198" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="199" spans="2:4">
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
     </row>
     <row r="200" ht="15" spans="2:4">
-      <c r="B200" s="25" t="s">
+      <c r="B200" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
     </row>
     <row r="201" ht="15" spans="2:4">
-      <c r="B201" s="25" t="s">
+      <c r="B201" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
     </row>
     <row r="206" ht="18" spans="2:5">
       <c r="B206" t="s">
         <v>81</v>
       </c>
-      <c r="E206" s="26" t="s">
+      <c r="E206" s="29" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
+      <c r="A210" s="7"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
+      <c r="G210" s="7"/>
+      <c r="H210" s="7"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
+      <c r="A211" s="7"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="5"/>
-      <c r="B212" s="27" t="s">
+      <c r="A212" s="7"/>
+      <c r="B212" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C212" s="27"/>
-      <c r="D212" s="27"/>
-      <c r="E212" s="27"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
+      <c r="C212" s="30"/>
+      <c r="D212" s="30"/>
+      <c r="E212" s="30"/>
+      <c r="F212" s="7"/>
+      <c r="G212" s="7"/>
+      <c r="H212" s="7"/>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
+      <c r="A213" s="7"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" t="s">
@@ -6250,12 +6316,12 @@
       </c>
     </row>
     <row r="219" ht="46" customHeight="1" spans="2:5">
-      <c r="B219" s="27" t="s">
+      <c r="B219" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" t="s">
@@ -6278,12 +6344,12 @@
       </c>
     </row>
     <row r="234" ht="59" customHeight="1" spans="2:5">
-      <c r="B234" s="27" t="s">
+      <c r="B234" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C234" s="5"/>
-      <c r="D234" s="5"/>
-      <c r="E234" s="5"/>
+      <c r="C234" s="7"/>
+      <c r="D234" s="7"/>
+      <c r="E234" s="7"/>
     </row>
     <row r="235" spans="2:6">
       <c r="B235" t="s">
@@ -6299,7 +6365,7 @@
       </c>
     </row>
     <row r="237" spans="2:10">
-      <c r="B237" s="28" t="s">
+      <c r="B237" s="31" t="s">
         <v>96</v>
       </c>
       <c r="J237" s="1" t="s">
@@ -6307,7 +6373,7 @@
       </c>
     </row>
     <row r="238" spans="2:2">
-      <c r="B238" s="28" t="s">
+      <c r="B238" s="31" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6335,46 +6401,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -6398,17 +6464,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -6420,133 +6486,213 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:M93"/>
+  <dimension ref="B2:Q113"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="12.625"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C35" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G35" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H35" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D36" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="3:4">
       <c r="C43" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="3:12">
       <c r="C47" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L47" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="10:10">
       <c r="J49" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C91" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>315</v>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" ht="85" customHeight="1" spans="2:17">
+      <c r="B104" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>13918191930</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107" t="s">
+        <v>296</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" t="s">
+        <v>325</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" t="s">
+        <v>327</v>
+      </c>
+      <c r="D113" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B104:Q104"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D35" r:id="rId2" display="li.bin@tolead.com" tooltip="mailto:li.bin@tolead.com"/>
     <hyperlink ref="C41" r:id="rId3" display="http://git.tolead.com:18070/users/sign_in" tooltip="http://git.tolead.com:18070/users/sign_in"/>
     <hyperlink ref="H33" r:id="rId4" display="http://git.tolead.com:18070/otms/cbs-client.git" tooltip="http://git.tolead.com:18070/otms/cbs-client.git"/>
     <hyperlink ref="C37" r:id="rId5" display="https://qiye.aliyun.com/alimail/"/>
+    <hyperlink ref="F107" r:id="rId6" display="13335657@qq.com"/>
+    <hyperlink ref="B106" r:id="rId7" display="https://account-devops.aliyun.com/account/invite?sign=910dc837f89a8e83ba5a864d0132ea59&amp;next_url=https%3A%2F%2Fcodeup.aliyun.com%3Forg_id%3D643ca964020eabef3107af64"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6567,30 +6713,30 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="D53" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C58">
         <v>123456</v>
@@ -6616,20 +6762,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="D5" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -6654,18 +6800,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C5" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -6687,7 +6833,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6695,12 +6841,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -6710,7 +6856,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6762,7 +6908,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6772,276 +6918,276 @@
       </c>
     </row>
     <row r="5" ht="15" spans="2:2">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="19" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:2">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" spans="2:2">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" ht="15" spans="2:2">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" ht="15" spans="2:2">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="22" ht="15" spans="2:2">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="20" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:2">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="20" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" ht="30" spans="2:2">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="20" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="25" ht="30" spans="2:2">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="20" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31" spans="5:7">
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="18" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="18">
+      <c r="B32" s="21">
         <v>1</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="21">
         <v>2</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="21">
         <v>3</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="21">
         <v>4</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="21">
         <v>5</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="21">
         <v>6</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="33" s="14" customFormat="1" spans="2:8">
-      <c r="B33" s="19" t="s">
+    <row r="33" s="17" customFormat="1" spans="2:8">
+      <c r="B33" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" s="14" customFormat="1" ht="14.25" spans="2:9">
-      <c r="B34" s="14">
+    <row r="34" s="17" customFormat="1" ht="14.25" spans="2:9">
+      <c r="B34" s="17">
         <v>0</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="17">
         <v>0</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" s="14" customFormat="1" ht="27" spans="2:9">
-      <c r="B35" s="14" t="s">
+    <row r="35" s="17" customFormat="1" ht="27" spans="2:9">
+      <c r="B35" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" s="14" customFormat="1" ht="27" spans="2:9">
-      <c r="B36" s="14" t="s">
+    <row r="36" s="17" customFormat="1" ht="27" spans="2:9">
+      <c r="B36" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" s="14" customFormat="1" ht="27" spans="2:9">
-      <c r="B37" s="14" t="s">
+    <row r="37" s="17" customFormat="1" ht="27" spans="2:9">
+      <c r="B37" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="I37" s="23" t="s">
+      <c r="I37" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="38" s="14" customFormat="1" spans="2:7">
-      <c r="B38" s="14" t="s">
+    <row r="38" s="17" customFormat="1" spans="2:7">
+      <c r="B38" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" s="14" customFormat="1"/>
-    <row r="40" s="14" customFormat="1"/>
-    <row r="41" s="14" customFormat="1"/>
-    <row r="42" s="14" customFormat="1"/>
-    <row r="43" s="14" customFormat="1"/>
-    <row r="44" s="14" customFormat="1"/>
-    <row r="45" s="14" customFormat="1"/>
-    <row r="46" s="14" customFormat="1"/>
-    <row r="47" s="14" customFormat="1"/>
-    <row r="48" s="14" customFormat="1"/>
-    <row r="49" s="14" customFormat="1"/>
-    <row r="50" s="14" customFormat="1"/>
+    <row r="39" s="17" customFormat="1"/>
+    <row r="40" s="17" customFormat="1"/>
+    <row r="41" s="17" customFormat="1"/>
+    <row r="42" s="17" customFormat="1"/>
+    <row r="43" s="17" customFormat="1"/>
+    <row r="44" s="17" customFormat="1"/>
+    <row r="45" s="17" customFormat="1"/>
+    <row r="46" s="17" customFormat="1"/>
+    <row r="47" s="17" customFormat="1"/>
+    <row r="48" s="17" customFormat="1"/>
+    <row r="49" s="17" customFormat="1"/>
+    <row r="50" s="17" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7095,8 +7241,8 @@
   <sheetPr/>
   <dimension ref="B5:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7190,15 +7336,15 @@
         <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J18">
         <v>123456</v>
@@ -7217,7 +7363,7 @@
     </row>
     <row r="22" spans="10:12">
       <c r="J22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L22">
         <v>123456</v>
@@ -7225,15 +7371,15 @@
     </row>
     <row r="23" spans="10:10">
       <c r="J23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="3:13">
@@ -7241,24 +7387,32 @@
         <v>123456</v>
       </c>
       <c r="J25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L25">
         <v>123456</v>
       </c>
       <c r="M25" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="10:13">
+      <c r="J27" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M27" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H28">
         <v>123</v>
@@ -7266,21 +7420,21 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C31">
         <v>123456</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7301,339 +7455,339 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="124.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="124.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="9" customWidth="1"/>
     <col min="7" max="7" width="21.375" customWidth="1"/>
-    <col min="8" max="8" width="28.125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="28.125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="9"/>
+        <v>166</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="11"/>
       <c r="E4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="3:4">
+      <c r="C5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="3:4">
+      <c r="C6" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="D6" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="3:4">
+      <c r="C11" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" ht="54" spans="3:4">
+      <c r="C12" s="9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="5" ht="27" spans="3:4">
-      <c r="C5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="3:4">
-      <c r="C6" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="3:4">
-      <c r="C11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" ht="54" spans="3:4">
-      <c r="C12" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>176</v>
+      <c r="D12" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>178</v>
+      <c r="C13" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
-      <c r="C17" s="11" t="s">
-        <v>179</v>
+      <c r="C17" s="13" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
-      <c r="C18" s="11" t="s">
-        <v>180</v>
+      <c r="C18" s="13" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
-      <c r="C19" s="11" t="s">
-        <v>181</v>
+      <c r="C19" s="13" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
-      <c r="C20" s="11" t="s">
-        <v>182</v>
+      <c r="C20" s="13" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
-      <c r="C21" s="11" t="s">
-        <v>183</v>
+      <c r="C21" s="13" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
-      <c r="C22" s="11" t="s">
-        <v>184</v>
+      <c r="C22" s="13" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
-      <c r="C23" s="11" t="s">
-        <v>185</v>
+      <c r="C23" s="13" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
-      <c r="C24" s="11" t="s">
-        <v>186</v>
+      <c r="C24" s="13" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
-      <c r="C25" s="11" t="s">
-        <v>187</v>
+      <c r="C25" s="13" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
-      <c r="C26" s="11" t="s">
-        <v>188</v>
+      <c r="C26" s="13" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
-      <c r="C27" s="12" t="s">
-        <v>189</v>
+      <c r="C27" s="14" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
-      <c r="C28" s="11" t="s">
-        <v>190</v>
+      <c r="C28" s="13" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
-      <c r="C29" s="11" t="s">
-        <v>191</v>
+      <c r="C29" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
-      <c r="C30" s="11" t="s">
-        <v>192</v>
+      <c r="C30" s="13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
-      <c r="C31" s="11" t="s">
-        <v>193</v>
+      <c r="C31" s="13" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
-      <c r="C32" s="11" t="s">
-        <v>194</v>
+      <c r="C32" s="13" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
-      <c r="C33" s="11" t="s">
-        <v>195</v>
+      <c r="C33" s="13" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
-      <c r="C34" s="11" t="s">
-        <v>196</v>
+      <c r="C34" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
-      <c r="C35" s="11" t="s">
-        <v>197</v>
+      <c r="C35" s="13" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
-      <c r="C36" s="11" t="s">
-        <v>198</v>
+      <c r="C36" s="13" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
-      <c r="C37" s="11" t="s">
-        <v>199</v>
+      <c r="C37" s="13" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
-      <c r="C38" s="11" t="s">
-        <v>200</v>
+      <c r="C38" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
-      <c r="C39" s="11" t="s">
-        <v>201</v>
+      <c r="C39" s="13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
-      <c r="C40" s="11" t="s">
-        <v>202</v>
+      <c r="C40" s="13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
-      <c r="C41" s="11" t="s">
-        <v>203</v>
+      <c r="C41" s="13" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
-      <c r="C42" s="11" t="s">
-        <v>204</v>
+      <c r="C42" s="13" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
-      <c r="C43" s="11" t="s">
-        <v>205</v>
+      <c r="C43" s="13" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
-      <c r="C44" s="11" t="s">
-        <v>206</v>
+      <c r="C44" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
-      <c r="C45" s="11" t="s">
-        <v>207</v>
+      <c r="C45" s="13" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
-      <c r="C46" s="11" t="s">
-        <v>208</v>
+      <c r="C46" s="13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
-      <c r="C47" s="11" t="s">
-        <v>209</v>
+      <c r="C47" s="13" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
-      <c r="C48" s="11" t="s">
-        <v>210</v>
+      <c r="C48" s="13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
-      <c r="C49" s="11" t="s">
-        <v>211</v>
+      <c r="C49" s="13" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
-      <c r="C50" s="11" t="s">
-        <v>212</v>
+      <c r="C50" s="13" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
-      <c r="C51" s="11" t="s">
-        <v>213</v>
+      <c r="C51" s="13" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
-      <c r="C52" s="11" t="s">
-        <v>214</v>
+      <c r="C52" s="13" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
-      <c r="C53" s="11" t="s">
-        <v>215</v>
+      <c r="C53" s="13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
-      <c r="C54" s="11" t="s">
-        <v>216</v>
+      <c r="C54" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
-      <c r="C55" s="11" t="s">
-        <v>217</v>
+      <c r="C55" s="13" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
-      <c r="C56" s="11" t="s">
-        <v>218</v>
+      <c r="C56" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
-      <c r="C57" s="11" t="s">
-        <v>219</v>
+      <c r="C57" s="13" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
-      <c r="C58" s="11" t="s">
-        <v>220</v>
+      <c r="C58" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
-      <c r="C59" s="11" t="s">
-        <v>221</v>
+      <c r="C59" s="13" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
-      <c r="C60" s="11" t="s">
-        <v>222</v>
+      <c r="C60" s="13" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
-      <c r="C61" s="11" t="s">
-        <v>223</v>
+      <c r="C61" s="13" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
-      <c r="C62" s="11" t="s">
-        <v>224</v>
+      <c r="C62" s="13" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
-      <c r="C63" s="11" t="s">
-        <v>225</v>
+      <c r="C63" s="13" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
-      <c r="C64" s="11" t="s">
-        <v>226</v>
+      <c r="C64" s="13" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
-      <c r="C66" s="13" t="s">
-        <v>227</v>
+      <c r="C66" s="15" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -7655,18 +7809,18 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="6"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M4" t="s">
         <v>34</v>
@@ -7680,7 +7834,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -7688,28 +7842,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -7735,53 +7889,53 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9">
-      <c r="B5" s="5" t="s">
-        <v>238</v>
+      <c r="B5" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -7804,133 +7958,133 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
-        <v>251</v>
+      <c r="B4" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
-        <v>252</v>
+      <c r="B5" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
-        <v>253</v>
+      <c r="B6" s="5" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
-        <v>254</v>
+      <c r="B7" s="5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="4" t="s">
-        <v>255</v>
+      <c r="B8" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="3" t="s">
-        <v>256</v>
+      <c r="B9" s="5" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
-        <v>257</v>
+      <c r="B10" s="5" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="4" t="s">
-        <v>258</v>
+      <c r="B11" s="6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
-        <v>259</v>
+      <c r="B12" s="5" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="4" t="s">
-        <v>260</v>
+      <c r="B13" s="6" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="3" t="s">
-        <v>261</v>
+      <c r="B14" s="5" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="4" t="s">
-        <v>262</v>
+      <c r="B15" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="3" t="s">
-        <v>263</v>
+      <c r="B16" s="5" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
-        <v>264</v>
+      <c r="B17" s="5" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="4" t="s">
-        <v>265</v>
+      <c r="B18" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
-        <v>266</v>
+      <c r="B19" s="5" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
-        <v>267</v>
+      <c r="B20" s="6" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="4" t="s">
-        <v>268</v>
+      <c r="B21" s="6" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="4" t="s">
-        <v>269</v>
+      <c r="B22" s="6" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="3" t="s">
-        <v>270</v>
+      <c r="B23" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="4" t="s">
-        <v>271</v>
+      <c r="B24" s="6" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="4" t="s">
-        <v>272</v>
+      <c r="B25" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="4" t="s">
-        <v>273</v>
+      <c r="B26" s="6" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="4" t="s">
-        <v>274</v>
+      <c r="B27" s="6" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="3" t="s">
-        <v>275</v>
+      <c r="B28" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="4" t="s">
-        <v>276</v>
+      <c r="B29" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="11"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="346">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -678,6 +678,12 @@
   </si>
   <si>
     <t xml:space="preserve">huanglei </t>
+  </si>
+  <si>
+    <t>SHXJ</t>
+  </si>
+  <si>
+    <t>盛合</t>
   </si>
   <si>
     <t>trutleky</t>
@@ -6401,46 +6407,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6464,17 +6470,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -6488,7 +6494,7 @@
   <sheetPr/>
   <dimension ref="B2:Q113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
@@ -6499,120 +6505,120 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C35" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G35" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D36" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="3:4">
       <c r="C43" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D43" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="3:12">
       <c r="C47" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L47" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="10:10">
       <c r="J49" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C91" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" ht="85" customHeight="1" spans="2:17">
       <c r="B104" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -6632,12 +6638,12 @@
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107" spans="2:9">
@@ -6647,20 +6653,19 @@
       <c r="C107">
         <v>13918191930</v>
       </c>
-      <c r="D107"/>
       <c r="E107" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I107" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="2:2">
@@ -6668,18 +6673,18 @@
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D113" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -6713,30 +6718,30 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D53" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C58">
         <v>123456</v>
@@ -6762,20 +6767,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -6800,18 +6805,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -6833,7 +6838,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6841,12 +6846,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -6856,7 +6861,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -7241,8 +7246,8 @@
   <sheetPr/>
   <dimension ref="B5:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7418,23 +7423,34 @@
         <v>123</v>
       </c>
     </row>
+    <row r="29" spans="10:13">
+      <c r="J29" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29">
+        <v>123456</v>
+      </c>
+      <c r="M29" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C31">
         <v>123456</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -7464,330 +7480,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -7809,7 +7825,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -7817,10 +7833,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M4" t="s">
         <v>34</v>
@@ -7834,7 +7850,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -7842,28 +7858,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -7890,52 +7906,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -7959,132 +7975,132 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,32 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
-    <sheet name="邮箱" sheetId="16" r:id="rId2"/>
-    <sheet name="Job时间设置" sheetId="12" r:id="rId3"/>
-    <sheet name="更新json" sheetId="15" r:id="rId4"/>
-    <sheet name="账号" sheetId="14" r:id="rId5"/>
-    <sheet name="名词解释" sheetId="11" r:id="rId6"/>
-    <sheet name="cbs流程" sheetId="2" r:id="rId7"/>
-    <sheet name="目的港流程整理" sheetId="10" r:id="rId8"/>
-    <sheet name="客户供应商仓库" sheetId="9" r:id="rId9"/>
-    <sheet name="菜单配置" sheetId="3" r:id="rId10"/>
-    <sheet name="cbs-开发调试" sheetId="4" r:id="rId11"/>
-    <sheet name="git设置" sheetId="5" r:id="rId12"/>
-    <sheet name="swagger" sheetId="6" r:id="rId13"/>
-    <sheet name="发布流程" sheetId="7" r:id="rId14"/>
-    <sheet name="后端人员" sheetId="8" r:id="rId15"/>
-    <sheet name="异步" sheetId="13" r:id="rId16"/>
+    <sheet name="发布版本" sheetId="17" r:id="rId2"/>
+    <sheet name="邮箱" sheetId="16" r:id="rId3"/>
+    <sheet name="Job时间设置" sheetId="12" r:id="rId4"/>
+    <sheet name="更新json" sheetId="15" r:id="rId5"/>
+    <sheet name="账号" sheetId="14" r:id="rId6"/>
+    <sheet name="名词解释" sheetId="11" r:id="rId7"/>
+    <sheet name="cbs流程" sheetId="2" r:id="rId8"/>
+    <sheet name="目的港流程整理" sheetId="10" r:id="rId9"/>
+    <sheet name="客户供应商仓库" sheetId="9" r:id="rId10"/>
+    <sheet name="菜单配置" sheetId="3" r:id="rId11"/>
+    <sheet name="cbs-开发调试" sheetId="4" r:id="rId12"/>
+    <sheet name="git设置" sheetId="5" r:id="rId13"/>
+    <sheet name="swagger" sheetId="6" r:id="rId14"/>
+    <sheet name="发布流程" sheetId="7" r:id="rId15"/>
+    <sheet name="后端人员" sheetId="8" r:id="rId16"/>
+    <sheet name="异步" sheetId="13" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="365">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -407,6 +408,63 @@
       </rPr>
       <t>--list-runtimes</t>
     </r>
+  </si>
+  <si>
+    <t>对于不同机器编译出来不同依赖问题。（独立版本）</t>
+  </si>
+  <si>
+    <t>比如发布机编译出来是以下版本：TLCBS2.runtimeconfig.json 内runtime版本是5.0.8</t>
+  </si>
+  <si>
+    <t>通过vs2019发布操作</t>
+  </si>
+  <si>
+    <t>而本机环境编译出来是以下版本：TLCBS2.runtimeconfig.json 内runtime版本是5.0.17</t>
+  </si>
+  <si>
+    <t>为何有差异呢？</t>
+  </si>
+  <si>
+    <t>发布方式有两种，一种在vs中发布，一种在命令行发布</t>
+  </si>
+  <si>
+    <t>vs中发布使用的sdk是vs自带的，比如当前项目是core版本是.net 5.0，使用的sdk通过控制面板来查看下。</t>
+  </si>
+  <si>
+    <t>确认使用的是sdk 5.0.416版本 for vs，使用runtime5.0.17</t>
+  </si>
+  <si>
+    <t>C:\Program Files\dotnet\sdk\5.0.416</t>
+  </si>
+  <si>
+    <t>dotnet.runtimeconfig.json</t>
+  </si>
+  <si>
+    <t>所以必须使用手动发布来改变发布的runtime版本</t>
+  </si>
+  <si>
+    <t>进入工程目录 powshell</t>
+  </si>
+  <si>
+    <t>globaljson可以作为工程文件加入后，可以忽略这条new命令</t>
+  </si>
+  <si>
+    <t>dotnet new globaljson --sdk-version 5.0.302 --force</t>
+  </si>
+  <si>
+    <t>dotnet publish TLCBS2.csproj -c Release -r win-x64 /p:SelfContained=true,PublishSingleFile=false --output C:\Users\disci\Desktop\publish-独立</t>
+  </si>
+  <si>
+    <t>查看本机sdk和runtime版本</t>
+  </si>
+  <si>
+    <t>到工程内proj目录，shift+鼠标右键进入powershell</t>
+  </si>
+  <si>
+    <t>dotnet --infro</t>
+  </si>
+  <si>
+    <t>安装指定sdk版本</t>
   </si>
   <si>
     <t>quartz</t>
@@ -4384,6 +4442,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4391,9 +4452,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4814,6 +4872,347 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="914400"/>
+          <a:ext cx="3886200" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="3429000"/>
+          <a:ext cx="8934450" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3600450"/>
+          <a:ext cx="5153025" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>526415</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="16329025"/>
+          <a:ext cx="7403465" cy="6256020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7861300"/>
+          <a:ext cx="9153525" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="10452100"/>
+          <a:ext cx="4962525" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="23291800"/>
+          <a:ext cx="7839075" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="24320500"/>
+          <a:ext cx="4943475" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4898,7 +5297,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4945,7 +5344,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4992,7 +5391,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5123,7 +5522,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5296,7 +5695,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5385,7 +5784,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5745,18 +6144,18 @@
   <sheetPr/>
   <dimension ref="A4:J238"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="H202" sqref="H202"/>
+    <sheetView topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="L206" sqref="L206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
@@ -5809,11 +6208,11 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
@@ -5856,11 +6255,11 @@
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
@@ -5891,22 +6290,22 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
@@ -6235,14 +6634,14 @@
       <c r="D199" s="7"/>
     </row>
     <row r="200" ht="15" spans="2:4">
-      <c r="B200" s="28" t="s">
+      <c r="B200" s="29" t="s">
         <v>79</v>
       </c>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
     </row>
     <row r="201" ht="15" spans="2:4">
-      <c r="B201" s="28" t="s">
+      <c r="B201" s="29" t="s">
         <v>80</v>
       </c>
       <c r="C201" s="7"/>
@@ -6262,7 +6661,7 @@
       <c r="B206" t="s">
         <v>81</v>
       </c>
-      <c r="E206" s="29" t="s">
+      <c r="E206" s="30" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6288,12 +6687,12 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="7"/>
-      <c r="B212" s="30" t="s">
+      <c r="B212" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C212" s="30"/>
-      <c r="D212" s="30"/>
-      <c r="E212" s="30"/>
+      <c r="C212" s="27"/>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
       <c r="H212" s="7"/>
@@ -6322,7 +6721,7 @@
       </c>
     </row>
     <row r="219" ht="46" customHeight="1" spans="2:5">
-      <c r="B219" s="30" t="s">
+      <c r="B219" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C219" s="7"/>
@@ -6350,7 +6749,7 @@
       </c>
     </row>
     <row r="234" ht="59" customHeight="1" spans="2:5">
-      <c r="B234" s="30" t="s">
+      <c r="B234" s="27" t="s">
         <v>92</v>
       </c>
       <c r="C234" s="7"/>
@@ -6392,6 +6791,155 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B4:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="4" spans="2:2">
+      <c r="B4" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:C41"/>
@@ -6407,46 +6955,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -6457,7 +7005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:B7"/>
@@ -6470,17 +7018,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -6489,7 +7037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:Q113"/>
@@ -6505,120 +7053,120 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="C35" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="G35" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="H35" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="D36" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="2" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="3:4">
       <c r="C43" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="D43" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="3:12">
       <c r="C47" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="L47" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="10:10">
       <c r="J49" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="C91" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
     </row>
     <row r="104" ht="85" customHeight="1" spans="2:17">
       <c r="B104" s="3" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -6638,12 +7186,12 @@
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="107" spans="2:9">
@@ -6654,18 +7202,18 @@
         <v>13918191930</v>
       </c>
       <c r="E107" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="I107" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
     </row>
     <row r="110" spans="2:2">
@@ -6673,18 +7221,18 @@
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="D113" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -6705,7 +7253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:D58"/>
@@ -6718,30 +7266,30 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="D53" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C58">
         <v>123456</v>
@@ -6754,7 +7302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:D5"/>
@@ -6767,20 +7315,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="D5" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -6789,7 +7337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:C5"/>
@@ -6805,18 +7353,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="C3" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C5" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -6825,7 +7373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B19:C27"/>
@@ -6838,7 +7386,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6846,12 +7394,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -6861,7 +7409,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -6876,6 +7424,130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:L140"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="12:12">
+      <c r="L20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" ht="25" customHeight="1" spans="2:3">
+      <c r="B43" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="8:8">
+      <c r="H78" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -6892,7 +7564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:I50"/>
@@ -6914,110 +7586,110 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="18" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" ht="15" spans="2:2">
       <c r="B5" s="19" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
       <c r="B6" s="19" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:2">
       <c r="B7" s="19" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
       <c r="B8" s="19" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="19" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
       <c r="B10" s="19" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
       <c r="B11" s="19" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
       <c r="B12" s="19" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="19" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
       <c r="B14" s="19" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" spans="2:2">
       <c r="B15" s="19" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" ht="15" spans="2:2">
       <c r="B19" s="20" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" ht="15" spans="2:2">
       <c r="B20" s="20" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
       <c r="B21" s="20" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" ht="15" spans="2:2">
       <c r="B22" s="20" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:2">
       <c r="B23" s="20" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" ht="30" spans="2:2">
       <c r="B24" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" ht="30" spans="2:2">
       <c r="B25" s="20" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="18" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -7045,25 +7717,25 @@
     </row>
     <row r="33" s="17" customFormat="1" spans="2:8">
       <c r="B33" s="22" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" s="17" customFormat="1" ht="14.25" spans="2:9">
@@ -7074,111 +7746,111 @@
         <v>0</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" s="17" customFormat="1" ht="27" spans="2:9">
       <c r="B35" s="17" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" s="17" customFormat="1" ht="27" spans="2:9">
       <c r="B36" s="17" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" s="17" customFormat="1" ht="27" spans="2:9">
       <c r="B37" s="17" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" s="17" customFormat="1" spans="2:7">
       <c r="B38" s="17" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" s="17" customFormat="1"/>
@@ -7199,7 +7871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B4:B8"/>
@@ -7212,27 +7884,27 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -7241,12 +7913,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B5:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -7254,12 +7926,12 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -7281,10 +7953,10 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
@@ -7295,7 +7967,7 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -7341,15 +8013,15 @@
         <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="J18">
         <v>123456</v>
@@ -7368,7 +8040,7 @@
     </row>
     <row r="22" spans="10:12">
       <c r="J22" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L22">
         <v>123456</v>
@@ -7376,15 +8048,15 @@
     </row>
     <row r="23" spans="10:10">
       <c r="J23" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="3:13">
@@ -7392,32 +8064,32 @@
         <v>123456</v>
       </c>
       <c r="J25" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="L25">
         <v>123456</v>
       </c>
       <c r="M25" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="10:13">
       <c r="J27" s="16" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="M27" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H28">
         <v>123</v>
@@ -7425,32 +8097,32 @@
     </row>
     <row r="29" spans="10:13">
       <c r="J29" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="L29">
         <v>123456</v>
       </c>
       <c r="M29" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C31">
         <v>123456</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -7460,7 +8132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:H66"/>
@@ -7480,330 +8152,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="9" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="9" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="9" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="9" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="9" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="9" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="13" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="13" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="13" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="13" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="13" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="13" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="13" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="13" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="13" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="13" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="14" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="13" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="13" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="13" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="13" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="13" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="13" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="13" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="13" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="13" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="13" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="13" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="13" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="13" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="13" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="13" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="13" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="13" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="13" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="13" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="13" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="13" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="13" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="13" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="13" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="13" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="13" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="13" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="13" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="13" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="13" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="13" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="13" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="13" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="13" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="13" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="13" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="13" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="15" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -7812,7 +8484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:O13"/>
@@ -7825,7 +8497,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -7833,10 +8505,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="L4" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="M4" t="s">
         <v>34</v>
@@ -7850,7 +8522,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -7858,28 +8530,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="O7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="O8" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -7890,7 +8562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B5:K9"/>
@@ -7906,201 +8578,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="I5" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="G6" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="I6" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="K6" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="B4:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="4" spans="2:2">
-      <c r="B4" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="6" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="6" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -6144,8 +6144,8 @@
   <sheetPr/>
   <dimension ref="A4:J238"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="L206" sqref="L206"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="H195" sqref="H195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7428,7 +7428,7 @@
   <sheetPr/>
   <dimension ref="B3:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+    <sheetView topLeftCell="A123" workbookViewId="0">
       <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="365">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -699,6 +699,9 @@
     <t>huanglei</t>
   </si>
   <si>
+    <t>目的站</t>
+  </si>
+  <si>
     <t>仓库金闻路</t>
   </si>
   <si>
@@ -709,9 +712,6 @@
   </si>
   <si>
     <t>HYWC-KODA</t>
-  </si>
-  <si>
-    <t>目的站</t>
   </si>
   <si>
     <t>空运</t>
@@ -6144,7 +6144,7 @@
   <sheetPr/>
   <dimension ref="A4:J238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+    <sheetView topLeftCell="A200" workbookViewId="0">
       <selection activeCell="H195" sqref="H195"/>
     </sheetView>
   </sheetViews>
@@ -7918,8 +7918,8 @@
   <sheetPr/>
   <dimension ref="B5:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7988,6 +7988,9 @@
       <c r="K13" t="s">
         <v>37</v>
       </c>
+      <c r="L13" t="s">
+        <v>164</v>
+      </c>
       <c r="M13">
         <v>123456</v>
       </c>
@@ -8013,15 +8016,15 @@
         <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J18">
         <v>123456</v>
@@ -8040,7 +8043,7 @@
     </row>
     <row r="22" spans="10:12">
       <c r="J22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L22">
         <v>123456</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="23" spans="10:10">
       <c r="J23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -8106,7 +8109,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:13">
       <c r="B31" t="s">
         <v>179</v>
       </c>
@@ -8118,6 +8121,15 @@
       </c>
       <c r="E31" t="s">
         <v>181</v>
+      </c>
+      <c r="J31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31">
+        <v>123456</v>
+      </c>
+      <c r="M31" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="2:2">

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="366">
   <si>
     <t>测试数据库 mysql</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>安装指定sdk版本</t>
+  </si>
+  <si>
+    <t>dotnet publish CT-Bookings.csproj -c Release -r win-x64 /p:SelfContained=true,PublishSingleFile=false --output C:\Users\disci\Desktop\ct-publish-独立</t>
   </si>
   <si>
     <t>quartz</t>
@@ -6805,132 +6808,132 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -6955,46 +6958,46 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -7018,17 +7021,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -7053,120 +7056,120 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="3:4">
       <c r="C43" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D43" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="3:12">
       <c r="C47" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L47" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="10:10">
       <c r="J49" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C91" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="104" ht="85" customHeight="1" spans="2:17">
       <c r="B104" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -7186,12 +7189,12 @@
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="2:9">
@@ -7202,18 +7205,18 @@
         <v>13918191930</v>
       </c>
       <c r="E107" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I107" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="2:2">
@@ -7221,18 +7224,18 @@
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D113" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -7266,30 +7269,30 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D53" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C58">
         <v>123456</v>
@@ -7315,20 +7318,20 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -7353,18 +7356,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -7386,7 +7389,7 @@
   <sheetData>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -7394,12 +7397,12 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -7409,7 +7412,7 @@
     </row>
     <row r="27" ht="37" customHeight="1" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -7426,10 +7429,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:L140"/>
+  <dimension ref="B3:L164"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7538,6 +7541,26 @@
     <row r="140" spans="2:2">
       <c r="B140" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -7586,110 +7609,110 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" ht="15" spans="2:2">
       <c r="B5" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:2">
       <c r="B6" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:2">
       <c r="B7" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
       <c r="B8" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
       <c r="B9" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
       <c r="B10" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
       <c r="B11" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
       <c r="B12" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
       <c r="B13" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:2">
       <c r="B14" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" spans="2:2">
       <c r="B15" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" ht="15" spans="2:2">
       <c r="B19" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" ht="15" spans="2:2">
       <c r="B20" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" ht="15" spans="2:2">
       <c r="B21" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" ht="15" spans="2:2">
       <c r="B22" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:2">
       <c r="B23" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" ht="30" spans="2:2">
       <c r="B24" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" ht="30" spans="2:2">
       <c r="B25" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -7717,25 +7740,25 @@
     </row>
     <row r="33" s="17" customFormat="1" spans="2:8">
       <c r="B33" s="22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" s="17" customFormat="1" ht="14.25" spans="2:9">
@@ -7746,111 +7769,111 @@
         <v>0</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" s="17" customFormat="1" ht="27" spans="2:9">
       <c r="B35" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" s="17" customFormat="1" ht="27" spans="2:9">
       <c r="B36" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" s="17" customFormat="1" ht="27" spans="2:9">
       <c r="B37" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" s="17" customFormat="1" spans="2:7">
       <c r="B38" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" s="17" customFormat="1"/>
@@ -7884,27 +7907,27 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -7918,7 +7941,7 @@
   <sheetPr/>
   <dimension ref="B5:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -7926,12 +7949,12 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -7953,10 +7976,10 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
@@ -7967,7 +7990,7 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -7989,7 +8012,7 @@
         <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13">
         <v>123456</v>
@@ -8016,15 +8039,15 @@
         <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J18">
         <v>123456</v>
@@ -8043,7 +8066,7 @@
     </row>
     <row r="22" spans="10:12">
       <c r="J22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L22">
         <v>123456</v>
@@ -8051,15 +8074,15 @@
     </row>
     <row r="23" spans="10:10">
       <c r="J23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="3:13">
@@ -8067,32 +8090,32 @@
         <v>123456</v>
       </c>
       <c r="J25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25">
         <v>123456</v>
       </c>
       <c r="M25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="10:13">
       <c r="J27" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H28">
         <v>123</v>
@@ -8100,41 +8123,41 @@
     </row>
     <row r="29" spans="10:13">
       <c r="J29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L29">
         <v>123456</v>
       </c>
       <c r="M29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C31">
         <v>123456</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K31">
         <v>123456</v>
       </c>
       <c r="M31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -8164,330 +8187,330 @@
   <sheetData>
     <row r="3" ht="37.5" spans="2:6">
       <c r="B3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" ht="409" customHeight="1" spans="2:8">
       <c r="B4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" ht="27" spans="3:4">
       <c r="C5" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" ht="54" spans="3:4">
       <c r="C6" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" ht="27" spans="3:4">
       <c r="C11" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" ht="54" spans="3:4">
       <c r="C12" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:3">
       <c r="C17" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" ht="18" spans="3:3">
       <c r="C18" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:3">
       <c r="C19" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:3">
       <c r="C20" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="3:3">
       <c r="C21" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:3">
       <c r="C22" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:3">
       <c r="C23" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:3">
       <c r="C24" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" ht="72" spans="3:3">
       <c r="C25" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" ht="36" spans="3:3">
       <c r="C26" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" ht="36" spans="3:3">
       <c r="C27" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:3">
       <c r="C28" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:3">
       <c r="C29" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:3">
       <c r="C30" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:3">
       <c r="C31" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" ht="36" spans="3:3">
       <c r="C32" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="3:3">
       <c r="C33" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" ht="18" spans="3:3">
       <c r="C34" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" ht="18" spans="3:3">
       <c r="C35" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" ht="18" spans="3:3">
       <c r="C36" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" ht="18" spans="3:3">
       <c r="C37" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" ht="18" spans="3:3">
       <c r="C38" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" ht="36" spans="3:3">
       <c r="C39" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" ht="36" spans="3:3">
       <c r="C40" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" ht="18" spans="3:3">
       <c r="C41" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" ht="18" spans="3:3">
       <c r="C42" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" ht="36" spans="3:3">
       <c r="C43" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" ht="36" spans="3:3">
       <c r="C44" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" ht="18" spans="3:3">
       <c r="C45" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" ht="18" spans="3:3">
       <c r="C46" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" ht="18" spans="3:3">
       <c r="C47" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" ht="18" spans="3:3">
       <c r="C48" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" ht="18" spans="3:3">
       <c r="C49" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" ht="18" spans="3:3">
       <c r="C50" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" ht="18" spans="3:3">
       <c r="C51" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" ht="18" spans="3:3">
       <c r="C52" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" ht="36" spans="3:3">
       <c r="C53" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" ht="18" spans="3:3">
       <c r="C54" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" ht="18" spans="3:3">
       <c r="C55" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" ht="18" spans="3:3">
       <c r="C56" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" ht="18" spans="3:3">
       <c r="C57" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" ht="18" spans="3:3">
       <c r="C58" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" ht="18" spans="3:3">
       <c r="C59" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" ht="18" spans="3:3">
       <c r="C60" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" ht="18" spans="3:3">
       <c r="C61" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" ht="18" spans="3:3">
       <c r="C62" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" ht="36" spans="3:3">
       <c r="C63" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" ht="36" spans="3:3">
       <c r="C64" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" ht="18" spans="3:3">
       <c r="C66" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -8509,7 +8532,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -8517,10 +8540,10 @@
     </row>
     <row r="4" spans="10:13">
       <c r="J4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M4" t="s">
         <v>34</v>
@@ -8534,7 +8557,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O5">
         <v>123123</v>
@@ -8542,28 +8565,28 @@
     </row>
     <row r="7" spans="13:15">
       <c r="M7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="13:15">
       <c r="M8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="J10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8590,52 +8613,52 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="B5" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
